--- a/scripts/market_performers/performance.xlsx
+++ b/scripts/market_performers/performance.xlsx
@@ -1152,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.004621404641229292</v>
+        <v>-0.001451555685097015</v>
       </c>
       <c r="C2">
-        <v>-0.04302392222106765</v>
+        <v>-0.04167858417869383</v>
       </c>
       <c r="D2">
         <v>0.95</v>
@@ -1169,16 +1169,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.006542340462528236</v>
+        <v>-0.0009041297615695289</v>
       </c>
       <c r="C3">
-        <v>-0.03532014616679168</v>
+        <v>-0.03521381501344703</v>
       </c>
       <c r="D3">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="E3">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1186,10 +1186,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0009603072983355038</v>
+        <v>-0.005424377791959122</v>
       </c>
       <c r="C4">
-        <v>-0.0325077399380805</v>
+        <v>-0.03191819026960029</v>
       </c>
       <c r="D4">
         <v>0.97</v>
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.02320441988950266</v>
+        <v>0.01100110011001096</v>
       </c>
       <c r="C5">
-        <v>-0.08796764408493438</v>
+        <v>-0.08953722334004012</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5">
         <v>1.01</v>
@@ -1220,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.03117723156532984</v>
+        <v>0.02094577229503996</v>
       </c>
       <c r="C6">
-        <v>-0.08538470686169589</v>
+        <v>-0.07877487784531045</v>
       </c>
       <c r="D6">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E6">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.02870625245772707</v>
+        <v>0.0175644028103046</v>
       </c>
       <c r="C7">
-        <v>-0.07326007326007332</v>
+        <v>-0.07291286912139984</v>
       </c>
       <c r="D7">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.004966887417218608</v>
+        <v>-0.005770816158285218</v>
       </c>
       <c r="C8">
-        <v>-0.04253632760898284</v>
+        <v>-0.04152340650621526</v>
       </c>
       <c r="D8">
+        <v>0.97</v>
+      </c>
+      <c r="E8">
         <v>0.95</v>
-      </c>
-      <c r="E8">
-        <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.002828854314002779</v>
+        <v>-0.001643964302489511</v>
       </c>
       <c r="C9">
-        <v>-0.0713815066988798</v>
+        <v>-0.0658445276370843</v>
       </c>
       <c r="D9">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E9">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.01888888888888891</v>
+        <v>0.009944751381215478</v>
       </c>
       <c r="C10">
-        <v>-0.08766564729867479</v>
+        <v>-0.08069458631256381</v>
       </c>
       <c r="D10">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E10">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.01240834743372803</v>
+        <v>-0.0005602240896357927</v>
       </c>
       <c r="C11">
-        <v>-0.07852314092563704</v>
+        <v>-0.07991696938245976</v>
       </c>
       <c r="D11">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E11">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.002254791431792624</v>
+        <v>-0.002244668911335487</v>
       </c>
       <c r="C12">
-        <v>-0.04008667388949074</v>
+        <v>-0.04108108108108106</v>
       </c>
       <c r="D12">
+        <v>0.96</v>
+      </c>
+      <c r="E12">
         <v>0.91</v>
-      </c>
-      <c r="E12">
-        <v>0.86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1339,13 +1339,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.02078179119247902</v>
+        <v>0.009354997538158469</v>
       </c>
       <c r="C13">
-        <v>-0.1025869759143623</v>
+        <v>-0.1013783903957314</v>
       </c>
       <c r="D13">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E13">
         <v>0.9399999999999999</v>
@@ -1356,16 +1356,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.0114655299132736</v>
+        <v>0.00438212094653825</v>
       </c>
       <c r="C14">
-        <v>-0.02318548387096775</v>
+        <v>-0.02101021729745291</v>
       </c>
       <c r="D14">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="E14">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1373,10 +1373,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.03920485919381562</v>
+        <v>0.02736726874657909</v>
       </c>
       <c r="C15">
-        <v>-0.03554376657824942</v>
+        <v>-0.04027556968733447</v>
       </c>
       <c r="D15">
         <v>0.67</v>
@@ -1390,16 +1390,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.01079734219269111</v>
+        <v>0.005405405405405387</v>
       </c>
       <c r="C16">
-        <v>-0.1170408538829591</v>
+        <v>-0.1061618411284335</v>
       </c>
       <c r="D16">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="E16">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.01148225469728609</v>
+        <v>-0.0005192107995846102</v>
       </c>
       <c r="C17">
-        <v>-0.05519960571710199</v>
+        <v>-0.05522682445759367</v>
       </c>
       <c r="D17">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="E17">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1424,10 +1424,10 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>-0.008667883211678756</v>
+        <v>-0.01516760200212341</v>
       </c>
       <c r="C18">
-        <v>-0.04930595720069407</v>
+        <v>-0.05135603000577045</v>
       </c>
       <c r="D18">
         <v>1.01</v>
@@ -1441,10 +1441,10 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.005000000000000004</v>
+        <v>-0.001250781738586618</v>
       </c>
       <c r="C19">
-        <v>-0.1216290588882773</v>
+        <v>-0.1232876712328766</v>
       </c>
       <c r="D19">
         <v>0.98</v>
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.01044867854947762</v>
+        <v>-0.00305064063453326</v>
       </c>
       <c r="C20">
-        <v>-0.0791855203619909</v>
+        <v>-0.08338028169014092</v>
       </c>
       <c r="D20">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E20">
         <v>0.87</v>
@@ -1475,16 +1475,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.02708512467755813</v>
+        <v>0.009774755631109267</v>
       </c>
       <c r="C21">
-        <v>-0.1212927756653993</v>
+        <v>-0.1176024279210926</v>
       </c>
       <c r="D21">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E21">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.02618045815801773</v>
+        <v>0.02006532897806812</v>
       </c>
       <c r="C22">
-        <v>-0.1136929460580912</v>
+        <v>-0.1083784910379325</v>
       </c>
       <c r="D22">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="E22">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.02127659574468069</v>
+        <v>0.003476245654692763</v>
       </c>
       <c r="C23">
-        <v>-0.1356749311294766</v>
+        <v>-0.130821917808219</v>
       </c>
       <c r="D23">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="E23">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.0302457466918714</v>
+        <v>0.02068641278796421</v>
       </c>
       <c r="C24">
-        <v>-0.0872017353579176</v>
+        <v>-0.08556611927398437</v>
       </c>
       <c r="D24">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="E24">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.01056105610561052</v>
+        <v>0.001956947162426503</v>
       </c>
       <c r="C25">
-        <v>-0.04455760661998727</v>
+        <v>-0.03503184713375796</v>
       </c>
       <c r="D25">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="E25">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1560,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.01840490797546017</v>
+        <v>-0.003021148036253819</v>
       </c>
       <c r="C26">
-        <v>-0.08169014084507038</v>
+        <v>-0.08426966292134831</v>
       </c>
       <c r="D26">
         <v>0.93</v>
@@ -1577,16 +1577,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.01847826086956522</v>
+        <v>0.006465517241379234</v>
       </c>
       <c r="C27">
-        <v>-0.08557213930348255</v>
+        <v>-0.08639523336643505</v>
       </c>
       <c r="D27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E27">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1594,13 +1594,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.0216919739696311</v>
+        <v>-0.0005347593582889338</v>
       </c>
       <c r="C28">
-        <v>-0.1227316141356256</v>
+        <v>-0.1223227034745359</v>
       </c>
       <c r="D28">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="E28">
         <v>1.29</v>
@@ -1611,16 +1611,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.01435872475054749</v>
+        <v>0.0009645526886905992</v>
       </c>
       <c r="C29">
-        <v>-0.1048615652932199</v>
+        <v>-0.1053777487480948</v>
       </c>
       <c r="D29">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="E29">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1628,10 +1628,10 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.05194805194805199</v>
+        <v>0.03274853801169594</v>
       </c>
       <c r="C30">
-        <v>-0.1546906187624751</v>
+        <v>-0.1597222222222223</v>
       </c>
       <c r="D30">
         <v>1.01</v>
@@ -1645,13 +1645,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.01805869074492101</v>
+        <v>0.00561167227833895</v>
       </c>
       <c r="C31">
-        <v>-0.07329842931937168</v>
+        <v>-0.07127882599580708</v>
       </c>
       <c r="D31">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="E31">
         <v>1.08</v>
@@ -1662,16 +1662,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.01177509567265235</v>
+        <v>-0.002339181286549774</v>
       </c>
       <c r="C32">
-        <v>-0.0794213973799127</v>
+        <v>-0.0743869209809264</v>
       </c>
       <c r="D32">
         <v>1.16</v>
       </c>
       <c r="E32">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.02244305493523896</v>
+        <v>-0.03111111111111114</v>
       </c>
       <c r="C33">
-        <v>-0.07461609811398538</v>
+        <v>-0.07841119571928384</v>
       </c>
       <c r="D33">
         <v>0.82</v>
       </c>
       <c r="E33">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.02723444080486667</v>
+        <v>-0.03242384601009153</v>
       </c>
       <c r="C34">
-        <v>-0.02661700581395342</v>
+        <v>-0.0295186194368755</v>
       </c>
       <c r="D34">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E34">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.01926782273603071</v>
+        <v>0.004455760661998767</v>
       </c>
       <c r="C35">
-        <v>-0.08787346221441113</v>
+        <v>-0.09053738317757005</v>
       </c>
       <c r="D35">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="E35">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.00941046221976201</v>
+        <v>0.004129955947136567</v>
       </c>
       <c r="C36">
-        <v>-0.1175748649975454</v>
+        <v>-0.1153281096963761</v>
       </c>
       <c r="D36">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E36">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.01166359729895649</v>
+        <v>0.005507955936352582</v>
       </c>
       <c r="C37">
-        <v>-0.06371986222732491</v>
+        <v>-0.06594036697247713</v>
       </c>
       <c r="D37">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.01348345843758686</v>
+        <v>0.008032128514056186</v>
       </c>
       <c r="C38">
-        <v>-0.06702169112871799</v>
+        <v>-0.06632057105775457</v>
       </c>
       <c r="D38">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="E38">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.01368876080691632</v>
+        <v>-0.001430615164520785</v>
       </c>
       <c r="C39">
-        <v>-0.1176844783715014</v>
+        <v>-0.1209626345788474</v>
       </c>
       <c r="D39">
+        <v>0.98</v>
+      </c>
+      <c r="E39">
         <v>0.96</v>
-      </c>
-      <c r="E39">
-        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.01464354527938337</v>
+        <v>0.002679938744257297</v>
       </c>
       <c r="C40">
-        <v>-0.09794353433252004</v>
+        <v>-0.09895833333333327</v>
       </c>
       <c r="D40">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.006418485237483936</v>
       </c>
       <c r="C41">
-        <v>-0.04907975460122702</v>
+        <v>-0.04785276073619631</v>
       </c>
       <c r="D41">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="E41">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.009578954893130372</v>
+        <v>-0.004484943404285593</v>
       </c>
       <c r="C42">
-        <v>-0.1420566502463055</v>
+        <v>-0.1403551895778283</v>
       </c>
       <c r="D42">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="E42">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1849,13 +1849,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.001923076923076925</v>
+        <v>-0.01151631477927064</v>
       </c>
       <c r="C43">
-        <v>-0.1106382978723405</v>
+        <v>-0.1156462585034013</v>
       </c>
       <c r="D43">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="E43">
         <v>1.18</v>
@@ -1866,16 +1866,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.02240527182866554</v>
+        <v>-0.05403930131004366</v>
       </c>
       <c r="C44">
-        <v>-0.04867444326617174</v>
+        <v>-0.03732290124762106</v>
       </c>
       <c r="D44">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="E44">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.02747492368076765</v>
+        <v>0.04389395914819646</v>
       </c>
       <c r="C45">
-        <v>-0.09582504970178923</v>
+        <v>-0.08096192384769543</v>
       </c>
       <c r="D45">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E45">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.004878048780487791</v>
+        <v>-0.002433090024330959</v>
       </c>
       <c r="C46">
-        <v>-0.08408071748878922</v>
+        <v>-0.08174692049272121</v>
       </c>
       <c r="D46">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="E46">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.0554384485666105</v>
+        <v>0.02359882005899707</v>
       </c>
       <c r="C47">
-        <v>-0.12922683238896</v>
+        <v>-0.1355685131195335</v>
       </c>
       <c r="D47">
         <v>1.36</v>
@@ -1934,16 +1934,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.002650176678445183</v>
+        <v>-0.002654867256637244</v>
       </c>
       <c r="C48">
-        <v>-0.1027070063694267</v>
+        <v>-0.1008737092930899</v>
       </c>
       <c r="D48">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E48">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.01750700280112054</v>
+        <v>0.009756097560975618</v>
       </c>
       <c r="C49">
-        <v>-0.1259938837920489</v>
+        <v>-0.1282051282051282</v>
       </c>
       <c r="D49">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="E49">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.002200220022002202</v>
+        <v>-0.009879253567508241</v>
       </c>
       <c r="C50">
-        <v>-0.06673511293634492</v>
+        <v>-0.06481481481481476</v>
       </c>
       <c r="D50">
         <v>0.93</v>
@@ -1985,10 +1985,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.04920576585405683</v>
+        <v>0.02998355218809812</v>
       </c>
       <c r="C51">
-        <v>-0.1347038171007058</v>
+        <v>-0.1363021831391589</v>
       </c>
       <c r="D51">
         <v>0.99</v>
@@ -2002,16 +2002,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.02529182879377447</v>
+        <v>0.009633911368015356</v>
       </c>
       <c r="C52">
-        <v>-0.07281772953414746</v>
+        <v>-0.07387387387387398</v>
       </c>
       <c r="D52">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E52">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>-0.001855287569573337</v>
+        <v>-0.01470588235294109</v>
       </c>
       <c r="C53">
-        <v>-0.04609929078014181</v>
+        <v>-0.04938271604938266</v>
       </c>
       <c r="D53">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="E53">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.03837719298245618</v>
+        <v>0.02614379084967319</v>
       </c>
       <c r="C54">
-        <v>-0.1428571428571429</v>
+        <v>-0.1412429378531073</v>
       </c>
       <c r="D54">
+        <v>0.91</v>
+      </c>
+      <c r="E54">
         <v>0.88</v>
-      </c>
-      <c r="E54">
-        <v>0.86</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>-0.05785685182670103</v>
+        <v>-0.05167464114832544</v>
       </c>
       <c r="C55">
-        <v>0.002038320423970725</v>
+        <v>0.001496191512513588</v>
       </c>
       <c r="D55">
-        <v>0.98</v>
+        <v>1.11</v>
       </c>
       <c r="E55">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.07785234899328866</v>
+        <v>0.07238605898123331</v>
       </c>
       <c r="C56">
-        <v>0.006839945280437762</v>
+        <v>0.01637107776261939</v>
       </c>
       <c r="D56">
         <v>0.48</v>
       </c>
       <c r="E56">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>-0.01159274193548392</v>
+        <v>-0.01263583522870863</v>
       </c>
       <c r="C57">
-        <v>-0.04906204906204906</v>
+        <v>-0.06127277028625507</v>
       </c>
       <c r="D57">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="E57">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-0.003601981089599289</v>
+        <v>-0.01387645478961494</v>
       </c>
       <c r="C58">
-        <v>-0.05603079555175372</v>
+        <v>-0.05449127288207747</v>
       </c>
       <c r="D58">
         <v>0.5600000000000001</v>
@@ -2121,16 +2121,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>-0.06876111440426799</v>
+        <v>-0.08189910979228493</v>
       </c>
       <c r="C59">
-        <v>-0.016533637400228</v>
+        <v>-0.0381984036488027</v>
       </c>
       <c r="D59">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="E59">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2138,13 +2138,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.1000901713255184</v>
+        <v>0.08781362007168469</v>
       </c>
       <c r="C60">
-        <v>-0.05393835616438354</v>
+        <v>-0.05051369863013692</v>
       </c>
       <c r="D60">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E60">
         <v>0.1</v>
@@ -2155,13 +2155,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.0198019801980198</v>
+        <v>0.01697892271662755</v>
       </c>
       <c r="C61">
-        <v>-0.129459734964322</v>
+        <v>-0.1350125944584382</v>
       </c>
       <c r="D61">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="E61">
         <v>0.96</v>
@@ -2172,16 +2172,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.01413043478260865</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>-0.111969111969112</v>
+        <v>-0.1170825335892515</v>
       </c>
       <c r="D62">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="E62">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.03387334315169362</v>
+        <v>0.008708272859216304</v>
       </c>
       <c r="C63">
-        <v>-0.1077529566360052</v>
+        <v>-0.1147327249022164</v>
       </c>
       <c r="D63">
         <v>1.46</v>
@@ -2206,16 +2206,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.01873265494912114</v>
+        <v>0.01265531523239765</v>
       </c>
       <c r="C64">
-        <v>-0.06968790081231294</v>
+        <v>-0.07587091258815981</v>
       </c>
       <c r="D64">
-        <v>2.67</v>
+        <v>2.81</v>
       </c>
       <c r="E64">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>-0.0009689922480619948</v>
+        <v>-0.005811138014527721</v>
       </c>
       <c r="C65">
-        <v>-0.08102059086839744</v>
+        <v>-0.06859205776173283</v>
       </c>
       <c r="D65">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="E65">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2240,13 +2240,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>-0.009211283822682732</v>
+        <v>-0.01959654178674344</v>
       </c>
       <c r="C66">
-        <v>-0.09974025974025971</v>
+        <v>-0.1018614270941055</v>
       </c>
       <c r="D66">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="E66">
         <v>1.65</v>
@@ -2257,16 +2257,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.01525553012967202</v>
+        <v>0.008384146341463337</v>
       </c>
       <c r="C67">
-        <v>-0.09814687714481816</v>
+        <v>-0.1032831737346101</v>
       </c>
       <c r="D67">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="E67">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.02249375173562894</v>
+        <v>0.02224694104560629</v>
       </c>
       <c r="C68">
-        <v>-0.120584652862363</v>
+        <v>-0.1238442822384428</v>
       </c>
       <c r="D68">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="E68">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.008274984086569058</v>
+        <v>-0.0004233700254022577</v>
       </c>
       <c r="C69">
-        <v>-0.1057728826433726</v>
+        <v>-0.107893242475866</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="E69">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.03407155025553666</v>
+        <v>0.02542372881355934</v>
       </c>
       <c r="C70">
-        <v>-0.104134762633997</v>
+        <v>-0.101071975497703</v>
       </c>
       <c r="D70">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="E70">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.0238836967808931</v>
+        <v>0.01165980795610411</v>
       </c>
       <c r="C71">
-        <v>-0.08476190476190476</v>
+        <v>-0.08489071903706047</v>
       </c>
       <c r="D71">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E71">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.01055555555555563</v>
+        <v>-0.003849326367885636</v>
       </c>
       <c r="C72">
-        <v>-0.07765492414502451</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D72">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E72">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.02654867256637156</v>
+        <v>0.01507537688442212</v>
       </c>
       <c r="C73">
-        <v>-0.0833333333333334</v>
+        <v>-0.08554913294797691</v>
       </c>
       <c r="D73">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="E73">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.01030927835051558</v>
+        <v>-0.004651162790697575</v>
       </c>
       <c r="C74">
-        <v>-0.09932659932659924</v>
+        <v>-0.1056160938809724</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="E74">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2393,13 +2393,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>-0.006017383552484912</v>
+        <v>-0.01748174374861699</v>
       </c>
       <c r="C75">
-        <v>-0.09816198747727728</v>
+        <v>-0.09371844071904666</v>
       </c>
       <c r="D75">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="E75">
         <v>1.98</v>
@@ -2410,13 +2410,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.01049475262368816</v>
+        <v>0.01047904191616766</v>
       </c>
       <c r="C76">
-        <v>-0.04434907010014306</v>
+        <v>-0.04985754985754986</v>
       </c>
       <c r="D76">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0.92</v>
@@ -2427,16 +2427,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.02838283828382837</v>
+        <v>0.01571709233791739</v>
       </c>
       <c r="C77">
-        <v>-0.09572240502542619</v>
+        <v>-0.09498207885304659</v>
       </c>
       <c r="D77">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="E77">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>-0.006400682739492218</v>
+        <v>-0.01781548250265104</v>
       </c>
       <c r="C78">
-        <v>-0.08092259577795161</v>
+        <v>-0.08439148271146711</v>
       </c>
       <c r="D78">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="E78">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.01879699248120301</v>
+        <v>0.007050041470832181</v>
       </c>
       <c r="C79">
-        <v>-0.09035455585207777</v>
+        <v>-0.09237962845949703</v>
       </c>
       <c r="D79">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="E79">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>-0.001718213058419293</v>
+        <v>-0.01194539249146756</v>
       </c>
       <c r="C80">
-        <v>-0.1329394387001476</v>
+        <v>-0.1415929203539823</v>
       </c>
       <c r="D80">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.0230636833046473</v>
+        <v>0.01538987688098497</v>
       </c>
       <c r="C81">
-        <v>-0.06982703395259444</v>
+        <v>-0.07484076433121026</v>
       </c>
       <c r="D81">
         <v>1.96</v>
@@ -2512,16 +2512,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.01244101244101238</v>
+        <v>0.006825938566552919</v>
       </c>
       <c r="C82">
-        <v>-0.03917525773195874</v>
+        <v>-0.03915910964550699</v>
       </c>
       <c r="D82">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="E82">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.09678624813153956</v>
+        <v>0.05653450807635826</v>
       </c>
       <c r="C83">
-        <v>-0.1111853088480802</v>
+        <v>-0.1112587180338758</v>
       </c>
       <c r="D83">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E83">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2546,13 +2546,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.001201923076923078</v>
+        <v>-0.001199040767386092</v>
       </c>
       <c r="C84">
-        <v>-0.07191011235955062</v>
+        <v>-0.07142857142857149</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E84">
         <v>1.14</v>
@@ -2563,16 +2563,16 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.002182106724856159</v>
+        <v>0.0005945303210463078</v>
       </c>
       <c r="C85">
-        <v>-0.07922244635980197</v>
+        <v>-0.07690899102728445</v>
       </c>
       <c r="D85">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="E85">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.06757614213197984</v>
+        <v>0.05852737570799228</v>
       </c>
       <c r="C86">
-        <v>-0.05089285714285715</v>
+        <v>-0.06579727326615294</v>
       </c>
       <c r="D86">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="E86">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2597,13 +2597,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>-0.0001879345987595275</v>
+        <v>-0.01137423084094739</v>
       </c>
       <c r="C87">
-        <v>-0.0633492147520734</v>
+        <v>-0.06122088920254065</v>
       </c>
       <c r="D87">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E87">
         <v>0.86</v>
@@ -2614,16 +2614,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.008341675008341624</v>
+        <v>0.0003324468085106824</v>
       </c>
       <c r="C88">
-        <v>-0.1399483796960138</v>
+        <v>-0.1446917808219178</v>
       </c>
       <c r="D88">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="E88">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.007909045971329708</v>
+        <v>0.005923000987166831</v>
       </c>
       <c r="C89">
-        <v>0.001485148514851485</v>
+        <v>0.002477700693756194</v>
       </c>
       <c r="D89">
         <v>0.91</v>
@@ -2648,16 +2648,16 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.001112347052280312</v>
+        <v>-0.01436464088397791</v>
       </c>
       <c r="C90">
-        <v>-0.09748743718592963</v>
+        <v>-0.0973895582329317</v>
       </c>
       <c r="D90">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="E90">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2665,13 +2665,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.05054945054945055</v>
+        <v>0.06814440908592125</v>
       </c>
       <c r="C91">
-        <v>-0.1052944087085601</v>
+        <v>-0.1013233260912503</v>
       </c>
       <c r="D91">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E91">
         <v>0.36</v>
@@ -2682,16 +2682,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.01369863013698622</v>
+        <v>0.005847953216374353</v>
       </c>
       <c r="C92">
-        <v>-0.07683982683982681</v>
+        <v>-0.08060453400503773</v>
       </c>
       <c r="D92">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="E92">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.01096843231674683</v>
+        <v>0.004259850905218227</v>
       </c>
       <c r="C93">
-        <v>-0.06153456571283868</v>
+        <v>-0.05558362809499737</v>
       </c>
       <c r="D93">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="E93">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2716,13 +2716,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>-0.004979253112033199</v>
+        <v>-0.01402640264026395</v>
       </c>
       <c r="C94">
-        <v>-0.06949806949806939</v>
+        <v>-0.07021604938271603</v>
       </c>
       <c r="D94">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="E94">
         <v>1.25</v>
@@ -2733,16 +2733,16 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.01897321428571418</v>
+        <v>0.04545454545454532</v>
       </c>
       <c r="C95">
-        <v>-0.07372013651877139</v>
+        <v>-0.07374224672639558</v>
       </c>
       <c r="D95">
         <v>1.12</v>
       </c>
       <c r="E95">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>-0.004351204351204218</v>
+        <v>-0.009823795415562097</v>
       </c>
       <c r="C96">
-        <v>-0.116720122716497</v>
+        <v>-0.1030108725954838</v>
       </c>
       <c r="D96">
         <v>1.73</v>
@@ -2767,13 +2767,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.01232394366197188</v>
+        <v>-0.005235602094240881</v>
       </c>
       <c r="C97">
-        <v>-0.09105431309904144</v>
+        <v>-0.09265175718849841</v>
       </c>
       <c r="D97">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="E97">
         <v>1.31</v>
@@ -2784,16 +2784,16 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.007089325501316617</v>
+        <v>-0.002214616468693222</v>
       </c>
       <c r="C98">
-        <v>-0.07070135746606335</v>
+        <v>-0.0712942061700526</v>
       </c>
       <c r="D98">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E98">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.001959503592423211</v>
+        <v>-0.006497725795971502</v>
       </c>
       <c r="C99">
-        <v>-0.07724803862401938</v>
+        <v>-0.07436517533252712</v>
       </c>
       <c r="D99">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E99">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2818,13 +2818,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.01778907242693772</v>
+        <v>0.007585335018963204</v>
       </c>
       <c r="C100">
-        <v>-0.1208053691275167</v>
+        <v>-0.1216517857142856</v>
       </c>
       <c r="D100">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E100">
         <v>0.9</v>
@@ -2835,10 +2835,10 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2430145611963795</v>
+        <v>0.1720524017467249</v>
       </c>
       <c r="C101">
-        <v>-0.1483438155136267</v>
+        <v>-0.1497406725782165</v>
       </c>
       <c r="D101">
         <v>0.5600000000000001</v>
@@ -2852,13 +2852,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.01536772777167946</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>-0.06857727737973386</v>
+        <v>-0.07040816326530615</v>
       </c>
       <c r="D102">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E102">
         <v>1.15</v>
@@ -2869,16 +2869,16 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.02959830866807604</v>
+        <v>0.03404255319148939</v>
       </c>
       <c r="C103">
-        <v>-0.1168831168831169</v>
+        <v>-0.1240740740740741</v>
       </c>
       <c r="D103">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="E103">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.02797202797202808</v>
+        <v>0.02091633466135449</v>
       </c>
       <c r="C104">
-        <v>-0.1047877145438122</v>
+        <v>-0.09982014388489208</v>
       </c>
       <c r="D104">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="E104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>-0.009273570324575093</v>
       </c>
       <c r="C105">
-        <v>-0.06657018813314029</v>
+        <v>-0.06936416184971093</v>
       </c>
       <c r="D105">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="E105">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>-0.008547008547008419</v>
+        <v>-0.02185792349726778</v>
       </c>
       <c r="C106">
-        <v>-0.06400000000000006</v>
+        <v>-0.06719817767653764</v>
       </c>
       <c r="D106">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="E106">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.01661801033011449</v>
+        <v>-0.001552795031055828</v>
       </c>
       <c r="C107">
-        <v>-0.1172413793103448</v>
+        <v>-0.1222156514882713</v>
       </c>
       <c r="D107">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="E107">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>-0.04334038054968287</v>
+        <v>-0.0451184548060962</v>
       </c>
       <c r="C108">
-        <v>-0.1080713216278754</v>
+        <v>-0.1028315946348734</v>
       </c>
       <c r="D108">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E108">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.01479915433403807</v>
+        <v>0.005059021922428359</v>
       </c>
       <c r="C109">
-        <v>-0.1039697542533082</v>
+        <v>-0.1078838174273859</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="E109">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.06590257879656165</v>
+        <v>0.05142857142857144</v>
       </c>
       <c r="C110">
-        <v>-0.1371571072319202</v>
+        <v>-0.1296758104738154</v>
       </c>
       <c r="D110">
         <v>1.17</v>
@@ -3005,16 +3005,16 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.02212389380530965</v>
+        <v>0.0131964809384164</v>
       </c>
       <c r="C111">
-        <v>-0.08060109289617484</v>
+        <v>-0.07503410641200543</v>
       </c>
       <c r="D111">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="E111">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>-0.02157420578473215</v>
+        <v>-0.03372921615201908</v>
       </c>
       <c r="C112">
-        <v>-0.1566673310743473</v>
+        <v>-0.1670616113744076</v>
       </c>
       <c r="D112">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E112">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3039,13 +3039,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.03717026378896884</v>
+        <v>0.03065896874377861</v>
       </c>
       <c r="C113">
-        <v>-0.1114072494669509</v>
+        <v>-0.1107161897991825</v>
       </c>
       <c r="D113">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="E113">
         <v>0.93</v>
@@ -3056,16 +3056,16 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.01428571428571425</v>
+        <v>-0.0009451795841208352</v>
       </c>
       <c r="C114">
-        <v>-0.08943560057887108</v>
+        <v>-0.09404659188956002</v>
       </c>
       <c r="D114">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="E114">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>-0.01035375323554794</v>
+        <v>-0.02060085836909882</v>
       </c>
       <c r="C115">
-        <v>-0.08372827804107413</v>
+        <v>-0.08668242710795909</v>
       </c>
       <c r="D115">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="E115">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.02277580071174379</v>
+        <v>0.01959387246170294</v>
       </c>
       <c r="C116">
-        <v>-0.05666666666666664</v>
+        <v>-0.07138136153337732</v>
       </c>
       <c r="D116">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="E116">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.002020202020201977</v>
+        <v>-0.002016129032258022</v>
       </c>
       <c r="C117">
-        <v>-0.06603773584905653</v>
+        <v>-0.06427221172022682</v>
       </c>
       <c r="D117">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.03731343283582079</v>
+        <v>0.02722772277227711</v>
       </c>
       <c r="C118">
-        <v>-0.1091314031180401</v>
+        <v>-0.1066666666666666</v>
       </c>
       <c r="D118">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="E118">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.02044609665427519</v>
+        <v>0.007859454461396249</v>
       </c>
       <c r="C119">
-        <v>-0.1095551894563427</v>
+        <v>-0.1176711767117673</v>
       </c>
       <c r="D119">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="E119">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.03881911596803124</v>
+        <v>0.01784266017842666</v>
       </c>
       <c r="C120">
-        <v>-0.2044495588799385</v>
+        <v>-0.2188813861638425</v>
       </c>
       <c r="D120">
         <v>0.96</v>
@@ -3175,16 +3175,16 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.03538175046554926</v>
+        <v>0.02590673575129528</v>
       </c>
       <c r="C121">
-        <v>-0.07349896480331265</v>
+        <v>-0.07253886010362694</v>
       </c>
       <c r="D121">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="E121">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.04070201643017177</v>
+        <v>0.02019089574155643</v>
       </c>
       <c r="C122">
-        <v>-0.03549438609199576</v>
+        <v>-0.03530259365994232</v>
       </c>
       <c r="D122">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E122">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.02584493041749505</v>
+        <v>0.01183431952662723</v>
       </c>
       <c r="C123">
-        <v>-0.09009009009009017</v>
+        <v>-0.09694793536804316</v>
       </c>
       <c r="D123">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="E123">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>-0.1799877974374619</v>
+        <v>-0.09616677874915942</v>
       </c>
       <c r="C124">
-        <v>0.1049761417859577</v>
+        <v>0.1218343600273784</v>
       </c>
       <c r="D124">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="E124">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.010989010989011</v>
+        <v>-0.0172786177105832</v>
       </c>
       <c r="C125">
-        <v>-0.1310211946050096</v>
+        <v>-0.1199226305609285</v>
       </c>
       <c r="D125">
         <v>1.05</v>
@@ -3260,16 +3260,16 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.07565789473684201</v>
+        <v>0.06840390879478832</v>
       </c>
       <c r="C126">
-        <v>-0.1574585635359115</v>
+        <v>-0.1508379888268156</v>
       </c>
       <c r="D126">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E126">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>-0.001826817683595179</v>
+        <v>-0.01020315204518528</v>
       </c>
       <c r="C127">
-        <v>-0.04135272472402305</v>
+        <v>-0.04040669646770096</v>
       </c>
       <c r="D127">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="E127">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3294,13 +3294,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.02214022140221404</v>
+        <v>0.01226993865030676</v>
       </c>
       <c r="C128">
-        <v>-0.1194353963083605</v>
+        <v>-0.1201298701298702</v>
       </c>
       <c r="D128">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E128">
         <v>0.78</v>
@@ -3311,13 +3311,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.016422435573522</v>
+        <v>0.000752823086574572</v>
       </c>
       <c r="C129">
-        <v>-0.08275382475660642</v>
+        <v>-0.08633425669436748</v>
       </c>
       <c r="D129">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="E129">
         <v>0.89</v>
@@ -3328,16 +3328,16 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.01690617075232461</v>
+        <v>-0.009128630705394106</v>
       </c>
       <c r="C130">
-        <v>-0.1344165435745938</v>
+        <v>-0.1256467110125647</v>
       </c>
       <c r="D130">
         <v>1.29</v>
       </c>
       <c r="E130">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.001066666666666668</v>
+        <v>0.01405405405405395</v>
       </c>
       <c r="C131">
-        <v>-0.1032196969696971</v>
+        <v>-0.1032998565279771</v>
       </c>
       <c r="D131">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.008219178082191789</v>
+        <v>0.02605416523825851</v>
       </c>
       <c r="C132">
-        <v>-0.08372383630115596</v>
+        <v>-0.07886435331230283</v>
       </c>
       <c r="D132">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="E132">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3379,13 +3379,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>-0.001101726037458564</v>
+        <v>-0.01601747360757191</v>
       </c>
       <c r="C133">
-        <v>-0.08055274688237272</v>
+        <v>-0.08316498316498327</v>
       </c>
       <c r="D133">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="E133">
         <v>1.92</v>
@@ -3396,13 +3396,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.02956204379562037</v>
+        <v>0.01879291651608238</v>
       </c>
       <c r="C134">
-        <v>-0.0845771144278607</v>
+        <v>-0.09301555776233035</v>
       </c>
       <c r="D134">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="E134">
         <v>1.71</v>
@@ -3413,16 +3413,16 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.01882613510520489</v>
+        <v>0.01434087148372864</v>
       </c>
       <c r="C135">
-        <v>-0.09164149043303119</v>
+        <v>-0.09154929577464786</v>
       </c>
       <c r="D135">
         <v>1.14</v>
       </c>
       <c r="E135">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.02964118564742592</v>
+        <v>0.01474010861132671</v>
       </c>
       <c r="C136">
-        <v>-0.1100346020761246</v>
+        <v>-0.1164713990351482</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.007137112987535171</v>
+        <v>-0.008793844308983665</v>
       </c>
       <c r="C137">
-        <v>-0.1293690823820901</v>
+        <v>-0.1219770520741394</v>
       </c>
       <c r="D137">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E137">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3464,13 +3464,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.06498214478952496</v>
+        <v>0.04959678137183344</v>
       </c>
       <c r="C138">
-        <v>-0.1511780905752753</v>
+        <v>-0.1563170468205543</v>
       </c>
       <c r="D138">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E138">
         <v>0.79</v>
@@ -3481,16 +3481,16 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.03085966201322564</v>
+        <v>0.01749271137026249</v>
       </c>
       <c r="C139">
-        <v>-0.1100917431192661</v>
+        <v>-0.1219354838709677</v>
       </c>
       <c r="D139">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E139">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.05953827460510324</v>
+        <v>0.03160000000000007</v>
       </c>
       <c r="C140">
-        <v>-0.1477663230240549</v>
+        <v>-0.1584867075664621</v>
       </c>
       <c r="D140">
         <v>1.05</v>
       </c>
       <c r="E140">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.04418262150220917</v>
+        <v>0.03991212010252642</v>
       </c>
       <c r="C141">
-        <v>-0.13568</v>
+        <v>-0.1294871794871795</v>
       </c>
       <c r="D141">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="E141">
-        <v>0.91</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.02275682704811452</v>
+        <v>0.008392511297611356</v>
       </c>
       <c r="C142">
-        <v>-0.1058755090168703</v>
+        <v>-0.1099537037037037</v>
       </c>
       <c r="D142">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="E142">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.01591511936339524</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>-0.06451612903225812</v>
+        <v>-0.05985037406483785</v>
       </c>
       <c r="D143">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.02762803234501342</v>
+        <v>0.01405622489959833</v>
       </c>
       <c r="C144">
-        <v>-0.1076178960096734</v>
+        <v>-0.1054852320675105</v>
       </c>
       <c r="D144">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="E144">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.00254951951363006</v>
+        <v>-0.01766304347826086</v>
       </c>
       <c r="C145">
-        <v>-0.1039052836190139</v>
+        <v>-0.09911660777385148</v>
       </c>
       <c r="D145">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="E145">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.0135256988277728</v>
+        <v>0.004039497307001747</v>
       </c>
       <c r="C146">
-        <v>-0.08960131524866416</v>
+        <v>-0.09135600163867272</v>
       </c>
       <c r="D146">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="E146">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.01240135287485915</v>
+        <v>0.01468926553672321</v>
       </c>
       <c r="C147">
-        <v>-0.05744680851063829</v>
+        <v>-0.05738575982996811</v>
       </c>
       <c r="D147">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="E147">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>-0.005477899508877959</v>
+        <v>-0.02057228352347116</v>
       </c>
       <c r="C148">
-        <v>-0.0577578475336323</v>
+        <v>-0.05345968174503851</v>
       </c>
       <c r="D148">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E148">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>-0.006088280060882805</v>
       </c>
       <c r="C149">
-        <v>-0.1027397260273973</v>
+        <v>-0.09999999999999994</v>
       </c>
       <c r="D149">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="E149">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.01423675191141572</v>
+        <v>0.001828631138975997</v>
       </c>
       <c r="C150">
-        <v>-0.1188534141225822</v>
+        <v>-0.1189314750290359</v>
       </c>
       <c r="D150">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E150">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.01765650080256817</v>
+        <v>-0.000797448165869352</v>
       </c>
       <c r="C151">
-        <v>-0.1441256830601093</v>
+        <v>-0.1489071038251366</v>
       </c>
       <c r="D151">
         <v>0.9</v>
@@ -3702,16 +3702,16 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>-0.04064470918009815</v>
+        <v>-0.05395935529081987</v>
       </c>
       <c r="C152">
-        <v>-0.1055590256089944</v>
+        <v>-0.1158612143742256</v>
       </c>
       <c r="D152">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E152">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3719,13 +3719,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.02553916004540291</v>
+        <v>0.02097505668934236</v>
       </c>
       <c r="C153">
-        <v>-0.07793575566087421</v>
+        <v>-0.07263157894736837</v>
       </c>
       <c r="D153">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="E153">
         <v>1.19</v>
@@ -3736,16 +3736,16 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>-0.03879310344827597</v>
+        <v>-0.03753609239653513</v>
       </c>
       <c r="C154">
-        <v>-0.05866425992779777</v>
+        <v>-0.05563093622795105</v>
       </c>
       <c r="D154">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="E154">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.01947502116850124</v>
+        <v>0.01604729729729729</v>
       </c>
       <c r="C155">
-        <v>-0.1266666666666667</v>
+        <v>-0.1245366938472943</v>
       </c>
       <c r="D155">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E155">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3770,13 +3770,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.007723995880535595</v>
+        <v>-0.007936507936507972</v>
       </c>
       <c r="C156">
-        <v>-0.07486886027658561</v>
+        <v>-0.07391511683357178</v>
       </c>
       <c r="D156">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="E156">
         <v>1.4</v>
@@ -3787,16 +3787,16 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.003174603174603119</v>
+        <v>-0.01416579223504712</v>
       </c>
       <c r="C157">
-        <v>-0.1094339622641509</v>
+        <v>-0.1114245416078984</v>
       </c>
       <c r="D157">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E157">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.02460024600246002</v>
+        <v>0.01122678097570937</v>
       </c>
       <c r="C158">
-        <v>-0.08999814436815735</v>
+        <v>-0.09850304934392906</v>
       </c>
       <c r="D158">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="E158">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>-0.01134215500945182</v>
+        <v>-0.0169014084507042</v>
       </c>
       <c r="C159">
-        <v>-0.04268846503178918</v>
+        <v>-0.04079782411604715</v>
       </c>
       <c r="D159">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="E159">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.01045751633986929</v>
+        <v>0.001300390117035112</v>
       </c>
       <c r="C160">
-        <v>-0.1037735849056603</v>
+        <v>-0.097877358490566</v>
       </c>
       <c r="D160">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="E160">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3855,13 +3855,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>-0.002958579881656685</v>
       </c>
       <c r="C161">
-        <v>-0.1002638522427442</v>
+        <v>-0.103448275862069</v>
       </c>
       <c r="D161">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="E161">
         <v>1.63</v>
@@ -3872,16 +3872,16 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.02226345083487942</v>
+        <v>0.01107011070110702</v>
       </c>
       <c r="C162">
-        <v>-0.0901360544217686</v>
+        <v>-0.08952702702702692</v>
       </c>
       <c r="D162">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E162">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>-0.001004520341536945</v>
+        <v>-0.01552328492739105</v>
       </c>
       <c r="C163">
-        <v>-0.113249776186213</v>
+        <v>-0.1019395579612089</v>
       </c>
       <c r="D163">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="E163">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.008090614886731393</v>
+        <v>-0.001615508885298892</v>
       </c>
       <c r="C164">
-        <v>-0.1152737752161384</v>
+        <v>-0.105643994211288</v>
       </c>
       <c r="D164">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="E164">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.00236406619385343</v>
+        <v>-0.002358490566037738</v>
       </c>
       <c r="C165">
-        <v>-0.06622516556291397</v>
+        <v>-0.07032967032967039</v>
       </c>
       <c r="D165">
         <v>1.36</v>
@@ -3940,16 +3940,16 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.08333333333333333</v>
+        <v>0.07250872431174878</v>
       </c>
       <c r="C166">
-        <v>-0.06739926739926738</v>
+        <v>-0.07085463842220593</v>
       </c>
       <c r="D166">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="E166">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.01819052178075625</v>
+        <v>-0.005174035747883197</v>
       </c>
       <c r="C167">
-        <v>-0.1222689075630252</v>
+        <v>-0.1230058774139379</v>
       </c>
       <c r="D167">
         <v>0.9399999999999999</v>
@@ -3974,16 +3974,16 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.01072386058981222</v>
+        <v>-0.01171693735498837</v>
       </c>
       <c r="C168">
-        <v>-0.1927529411764706</v>
+        <v>-0.1976994295333395</v>
       </c>
       <c r="D168">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="E168">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.06563706563706564</v>
+        <v>0.06108202443280983</v>
       </c>
       <c r="C169">
-        <v>-0.111111111111111</v>
+        <v>-0.1152173913043478</v>
       </c>
       <c r="D169">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="E169">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.01470060953746852</v>
+        <v>-0.003909026297085963</v>
       </c>
       <c r="C170">
-        <v>-0.1332288401253918</v>
+        <v>-0.1276196434157021</v>
       </c>
       <c r="D170">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E170">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.007214206437291874</v>
+        <v>0.001660210293303789</v>
       </c>
       <c r="C171">
-        <v>-0.1234807972775887</v>
+        <v>-0.1214041930765481</v>
       </c>
       <c r="D171">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E171">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.03933747412008279</v>
+        <v>0.02061855670103094</v>
       </c>
       <c r="C172">
-        <v>-0.1261261261261261</v>
+        <v>-0.1297297297297297</v>
       </c>
       <c r="D172">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="E172">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.02372372372372361</v>
+        <v>0.01699463327370316</v>
       </c>
       <c r="C173">
-        <v>-0.1214854111405836</v>
+        <v>-0.1185812599258867</v>
       </c>
       <c r="D173">
         <v>1.18</v>
@@ -4076,13 +4076,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>-0.01366120218579236</v>
+        <v>-0.02710027100271005</v>
       </c>
       <c r="C174">
-        <v>-0.1186440677966101</v>
+        <v>-0.1116504854368932</v>
       </c>
       <c r="D174">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E174">
         <v>1.16</v>
@@ -4093,16 +4093,16 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>-0.06595822645657756</v>
+        <v>-0.07813070463672872</v>
       </c>
       <c r="C175">
-        <v>-0.004948745139625392</v>
+        <v>-0.03637005649717506</v>
       </c>
       <c r="D175">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="E175">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>-0.1085640138408304</v>
+        <v>-0.1446593776282591</v>
       </c>
       <c r="C176">
-        <v>0.1207848550581739</v>
+        <v>0.1373475009838646</v>
       </c>
       <c r="D176">
         <v>0.88</v>
       </c>
       <c r="E176">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.01567091087169446</v>
+        <v>0.01077375122428995</v>
       </c>
       <c r="C177">
-        <v>-0.09358288770053472</v>
+        <v>-0.08920606601248893</v>
       </c>
       <c r="D177">
         <v>1.59</v>
       </c>
       <c r="E177">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>-0.02453594194764059</v>
+        <v>-0.02304536679536685</v>
       </c>
       <c r="C178">
-        <v>-0.08417011222681638</v>
+        <v>-0.0809506263817244</v>
       </c>
       <c r="D178">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="E178">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.0337016574585635</v>
+        <v>0.02360043907793632</v>
       </c>
       <c r="C179">
-        <v>-0.1318118304611085</v>
+        <v>-0.1549953314659197</v>
       </c>
       <c r="D179">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="E179">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.01520912547528526</v>
+        <v>0.01079365079365084</v>
       </c>
       <c r="C180">
-        <v>-0.0916856492027335</v>
+        <v>-0.1008547008547008</v>
       </c>
       <c r="D180">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="E180">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.006072874493926995</v>
+        <v>0</v>
       </c>
       <c r="C181">
-        <v>-0.09506398537477141</v>
+        <v>-0.09523809523809516</v>
       </c>
       <c r="D181">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="E181">
-        <v>3.36</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.0006524102935846811</v>
+        <v>-0.01686608043822984</v>
       </c>
       <c r="C182">
-        <v>-0.1091601575108126</v>
+        <v>-0.111204174988725</v>
       </c>
       <c r="D182">
         <v>0.88</v>
       </c>
       <c r="E182">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>-0.01882845188284521</v>
+        <v>-0.02713987473903957</v>
       </c>
       <c r="C183">
-        <v>-0.1509769094138543</v>
+        <v>-0.1584507042253521</v>
       </c>
       <c r="D183">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="E183">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>-0.0210355987055016</v>
+        <v>-0.03721682847896433</v>
       </c>
       <c r="C184">
-        <v>-0.05426356589147295</v>
+        <v>-0.05792682926829267</v>
       </c>
       <c r="D184">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="E184">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.01175318315377074</v>
+        <v>-0.002909796314258112</v>
       </c>
       <c r="C185">
-        <v>-0.08288288288288288</v>
+        <v>-0.07601809954751129</v>
       </c>
       <c r="D185">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="E185">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.01302573760200876</v>
+        <v>0.001090512540894335</v>
       </c>
       <c r="C186">
-        <v>-0.08459869848156194</v>
+        <v>-0.07518142235123376</v>
       </c>
       <c r="D186">
         <v>1.08</v>
@@ -4297,16 +4297,16 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.01684717208182906</v>
+        <v>0.001189060642092698</v>
       </c>
       <c r="C187">
-        <v>-0.1027027027027027</v>
+        <v>-0.1006493506493507</v>
       </c>
       <c r="D187">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="E187">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>-0.006103383848868564</v>
+        <v>-0.01332230037236244</v>
       </c>
       <c r="C188">
-        <v>-0.08102661596958169</v>
+        <v>-0.08793123035558745</v>
       </c>
       <c r="D188">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="E188">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>-0.03826674169949353</v>
+        <v>-0.04225352112676044</v>
       </c>
       <c r="C189">
-        <v>-0.07741251325556735</v>
+        <v>-0.06028556319407718</v>
       </c>
       <c r="D189">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="E189">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.03477756846833788</v>
+        <v>0.02727404613375886</v>
       </c>
       <c r="C190">
-        <v>-0.04356962734659576</v>
+        <v>-0.03157451585742357</v>
       </c>
       <c r="D190">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E190">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4365,13 +4365,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.01967213114754089</v>
+        <v>0.02280130293159615</v>
       </c>
       <c r="C191">
-        <v>-0.08231707317073166</v>
+        <v>-0.07012195121951212</v>
       </c>
       <c r="D191">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="E191">
         <v>1.16</v>
@@ -4382,10 +4382,10 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>-0.006514657980456032</v>
+        <v>-0.009771986970683976</v>
       </c>
       <c r="C192">
-        <v>-0.04687500000000011</v>
+        <v>-0.03459119496855356</v>
       </c>
       <c r="D192">
         <v>1.62</v>
@@ -4399,16 +4399,16 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>-0.05651237890204532</v>
+        <v>-0.06209850107066386</v>
       </c>
       <c r="C193">
-        <v>-0.1455137145513713</v>
+        <v>-0.1333955223880597</v>
       </c>
       <c r="D193">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="E193">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.007684918347742563</v>
+        <v>0.003351687814220789</v>
       </c>
       <c r="C194">
-        <v>-0.08177209609874357</v>
+        <v>-0.08140304434149584</v>
       </c>
       <c r="D194">
         <v>0.6899999999999999</v>
       </c>
       <c r="E194">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.07606448945845379</v>
+        <v>0.1056309083436088</v>
       </c>
       <c r="C195">
-        <v>-0.08145315487571707</v>
+        <v>-0.07459831675592966</v>
       </c>
       <c r="D195">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="E195">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.03020134228187922</v>
+        <v>0.02006688963210704</v>
       </c>
       <c r="C196">
-        <v>-0.1003039513677812</v>
+        <v>-0.09696969696969705</v>
       </c>
       <c r="D196">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="E196">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>-0.01176470588235295</v>
+        <v>-0.01956947162426616</v>
       </c>
       <c r="C197">
-        <v>-0.05871559633027527</v>
+        <v>-0.06077348066298348</v>
       </c>
       <c r="D197">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="E197">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.005905802450908023</v>
+        <v>-0.007076514816452903</v>
       </c>
       <c r="C198">
-        <v>-0.08798486281929987</v>
+        <v>-0.09075043630017454</v>
       </c>
       <c r="D198">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="E198">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.01897018970189704</v>
+        <v>-0.01164021164021168</v>
       </c>
       <c r="C199">
-        <v>-0.114354066985646</v>
+        <v>-0.1180688336520077</v>
       </c>
       <c r="D199">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="E199">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>-0.00813559322033899</v>
+        <v>-0.03106009453072251</v>
       </c>
       <c r="C200">
-        <v>-0.128023598820059</v>
+        <v>-0.1282505910165484</v>
       </c>
       <c r="D200">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="E200">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.01251422070534707</v>
+        <v>0</v>
       </c>
       <c r="C201">
-        <v>-0.1080389144905273</v>
+        <v>-0.1062531774275547</v>
       </c>
       <c r="D201">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="E201">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.02151271982243466</v>
+        <v>0.007277035031308259</v>
       </c>
       <c r="C202">
-        <v>-0.09935105067985166</v>
+        <v>-0.1005835380835381</v>
       </c>
       <c r="D202">
         <v>1.03</v>
       </c>
       <c r="E202">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.06881028938906744</v>
+        <v>0.0682769726247987</v>
       </c>
       <c r="C203">
-        <v>-0.1267293857221915</v>
+        <v>-0.141832229580574</v>
       </c>
       <c r="D203">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>-0.004698846646732122</v>
+        <v>-0.0244829041789785</v>
       </c>
       <c r="C204">
-        <v>-0.1307262569832402</v>
+        <v>-0.1235492324971921</v>
       </c>
       <c r="D204">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E204">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>-0.005167958656330754</v>
+        <v>-0.03320561941251599</v>
       </c>
       <c r="C205">
-        <v>-0.09918319719953321</v>
+        <v>-0.1062355658198614</v>
       </c>
       <c r="D205">
         <v>0.98</v>
@@ -4620,13 +4620,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>-0.005453306066802967</v>
+        <v>-0.00746268656716411</v>
       </c>
       <c r="C206">
-        <v>-0.09522332506203475</v>
+        <v>-0.08966801116971761</v>
       </c>
       <c r="D206">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="E206">
         <v>0.9</v>
@@ -4637,16 +4637,16 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.02239825184375865</v>
+        <v>0.00868385345997281</v>
       </c>
       <c r="C207">
-        <v>-0.1155888030888031</v>
+        <v>-0.1133446355049649</v>
       </c>
       <c r="D207">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="E207">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.0169491525423729</v>
+        <v>0.01666666666666668</v>
       </c>
       <c r="C208">
-        <v>-0.01666666666666668</v>
+        <v>-0.03278688524590168</v>
       </c>
       <c r="D208">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="E208">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.01777059773828762</v>
+        <v>-0.008038585209003224</v>
       </c>
       <c r="C209">
-        <v>-0.137062937062937</v>
+        <v>-0.137883008356546</v>
       </c>
       <c r="D209">
         <v>1.09</v>
@@ -4688,16 +4688,16 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>-0.03651202749140896</v>
+        <v>-0.07582739840804359</v>
       </c>
       <c r="C210">
-        <v>-0.1385740402193785</v>
+        <v>-0.1522214129643117</v>
       </c>
       <c r="D210">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.002548249644916031</v>
+        <v>-0.008954481386286312</v>
       </c>
       <c r="C211">
-        <v>-0.1027949728006003</v>
+        <v>-0.09855017887403496</v>
       </c>
       <c r="D211">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="E211">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4722,13 +4722,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.01511508072827205</v>
+        <v>0.008901061280383425</v>
       </c>
       <c r="C212">
-        <v>-0.07345895879910561</v>
+        <v>-0.06847999999999999</v>
       </c>
       <c r="D212">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="E212">
         <v>1.82</v>
@@ -4739,16 +4739,16 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.007889546351084764</v>
+        <v>-0.003913894324853205</v>
       </c>
       <c r="C213">
-        <v>-0.1058201058201058</v>
+        <v>-0.1073943661971831</v>
       </c>
       <c r="D213">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E213">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>-0.004680187207488433</v>
+        <v>-0.01045296167247379</v>
       </c>
       <c r="C214">
-        <v>-0.1348884381338742</v>
+        <v>-0.1343686698176907</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E214">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>0.007352941176470595</v>
       </c>
       <c r="C215">
-        <v>-0.06987399770904919</v>
+        <v>-0.05970149253731349</v>
       </c>
       <c r="D215">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="E215">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>-0.00119545726240287</v>
+        <v>-0.0118483412322275</v>
       </c>
       <c r="C216">
-        <v>-0.06677796327212014</v>
+        <v>-0.06588498045784472</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="E216">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>-0.01628423390081427</v>
+        <v>-0.02660753880266069</v>
       </c>
       <c r="C217">
-        <v>-0.1161417322834647</v>
+        <v>-0.1123521681997372</v>
       </c>
       <c r="D217">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="E217">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.001013171225937213</v>
+        <v>0.003036437246963509</v>
       </c>
       <c r="C218">
-        <v>-0.05904761904761902</v>
+        <v>-0.05955216769890429</v>
       </c>
       <c r="D218">
         <v>1.24</v>
@@ -4841,16 +4841,16 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.02439024390243896</v>
+        <v>0.01476014760147603</v>
       </c>
       <c r="C219">
-        <v>-0.1332908163265306</v>
+        <v>-0.1425855513307985</v>
       </c>
       <c r="D219">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E219">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.07754629629629636</v>
+        <v>0.04743083003952574</v>
       </c>
       <c r="C220">
-        <v>-0.0789473684210527</v>
+        <v>-0.05728314238952536</v>
       </c>
       <c r="D220">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="E220">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.01897983392645316</v>
+        <v>-0.001753360607831744</v>
       </c>
       <c r="C221">
-        <v>-0.1080084299262381</v>
+        <v>-0.1140304781923279</v>
       </c>
       <c r="D221">
         <v>1.04</v>
       </c>
       <c r="E221">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.00634696755994366</v>
+        <v>-0.0235783633841886</v>
       </c>
       <c r="C222">
-        <v>-0.180722891566265</v>
+        <v>-0.1897142857142857</v>
       </c>
       <c r="D222">
         <v>0.89</v>
       </c>
       <c r="E222">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.01003921568627462</v>
+        <v>0.004571248423707462</v>
       </c>
       <c r="C223">
-        <v>-0.1076233183856502</v>
+        <v>-0.109014675052411</v>
       </c>
       <c r="D223">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="E223">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.0322232870148539</v>
+        <v>0.02487267558924549</v>
       </c>
       <c r="C224">
-        <v>-0.1241988021435325</v>
+        <v>-0.1259553973405927</v>
       </c>
       <c r="D224">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E224">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4943,13 +4943,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>-0.01781737193763916</v>
+        <v>-0.02788781492631909</v>
       </c>
       <c r="C225">
-        <v>-0.08912759471621426</v>
+        <v>-0.0868680999418943</v>
       </c>
       <c r="D225">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="E225">
         <v>1.22</v>
@@ -4960,7 +4960,7 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.008243500317057676</v>
+        <v>0.00505050505050502</v>
       </c>
       <c r="C226">
         <v>-0.08526682134570761</v>
@@ -4969,7 +4969,7 @@
         <v>1.58</v>
       </c>
       <c r="E226">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.02066009743946665</v>
+        <v>0.001327588495842142</v>
       </c>
       <c r="C227">
-        <v>-0.1163600198906016</v>
+        <v>-0.1173275276720951</v>
       </c>
       <c r="D227">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="E227">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>-0.01659125188536955</v>
+        <v>-0.02111613876319761</v>
       </c>
       <c r="C228">
-        <v>-0.04999999999999989</v>
+        <v>-0.05150214592274667</v>
       </c>
       <c r="D228">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="E228">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.05506912442396308</v>
+        <v>0.02626262626262623</v>
       </c>
       <c r="C229">
-        <v>-0.1347376788553259</v>
+        <v>-0.1399128022195799</v>
       </c>
       <c r="D229">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="E229">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.03170955882352932</v>
+        <v>0.02464411449563754</v>
       </c>
       <c r="C230">
-        <v>-0.1374507227332458</v>
+        <v>-0.1475581091668843</v>
       </c>
       <c r="D230">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E230">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.008144020574367822</v>
+        <v>-0.008242338851708379</v>
       </c>
       <c r="C231">
-        <v>-0.1306679972556602</v>
+        <v>-0.1330360460795244</v>
       </c>
       <c r="D231">
         <v>1.11</v>
@@ -5062,16 +5062,16 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.003099296698057035</v>
+        <v>-0.003715689799832184</v>
       </c>
       <c r="C232">
-        <v>-0.176637897214594</v>
+        <v>-0.1782740718973454</v>
       </c>
       <c r="D232">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E232">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.02258154446612767</v>
+        <v>0.01496674057649672</v>
       </c>
       <c r="C233">
-        <v>-0.06342991386061078</v>
+        <v>-0.0646675358539765</v>
       </c>
       <c r="D233">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="E233">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.02282815472415976</v>
+        <v>0.01755870530992169</v>
       </c>
       <c r="C234">
-        <v>-0.04057618178129438</v>
+        <v>-0.04172574437917755</v>
       </c>
       <c r="D234">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E234">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.01861031759368169</v>
+        <v>0.01682448427460269</v>
       </c>
       <c r="C235">
-        <v>-0.1358267716535434</v>
+        <v>-0.1426925016206872</v>
       </c>
       <c r="D235">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E235">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>-0.009519951387482397</v>
+        <v>-0.01416430594900856</v>
       </c>
       <c r="C236">
-        <v>-0.0960102022226271</v>
+        <v>-0.09246323529411767</v>
       </c>
       <c r="D236">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="E236">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.02707149267125337</v>
+        <v>0.008176007135424499</v>
       </c>
       <c r="C237">
-        <v>-0.08362795757410932</v>
+        <v>-0.08636239409674779</v>
       </c>
       <c r="D237">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E237">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.02373597788977395</v>
+        <v>0.02176031178954207</v>
       </c>
       <c r="C238">
-        <v>-0.08518848322944488</v>
+        <v>-0.09170112226816303</v>
       </c>
       <c r="D238">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="E238">
-        <v>1.79</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5181,13 +5181,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.03488996242619442</v>
+        <v>0.01547491995731071</v>
       </c>
       <c r="C239">
-        <v>-0.1003393116820165</v>
+        <v>-0.09475218658892126</v>
       </c>
       <c r="D239">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="E239">
         <v>0.91</v>
@@ -5198,16 +5198,16 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.02263202011735114</v>
+        <v>0.0008326394671106493</v>
       </c>
       <c r="C240">
-        <v>-0.2062841530054645</v>
+        <v>-0.1862210095497953</v>
       </c>
       <c r="D240">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E240">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.03703703703703692</v>
+        <v>0.01679841897233202</v>
       </c>
       <c r="C241">
-        <v>-0.1065353625783348</v>
+        <v>-0.1088314005352363</v>
       </c>
       <c r="D241">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="E241">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.007573404817557272</v>
+        <v>-0.001025613197308375</v>
       </c>
       <c r="C242">
-        <v>-0.03592764032428394</v>
+        <v>-0.03606541879372286</v>
       </c>
       <c r="D242">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="E242">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.002262443438913979</v>
+        <v>0.002267573696145076</v>
       </c>
       <c r="C243">
-        <v>-0.08488612836438926</v>
+        <v>-0.08298755186721998</v>
       </c>
       <c r="D243">
         <v>1.27</v>
@@ -5266,16 +5266,16 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.01176545678907276</v>
+        <v>-0.008823529411764668</v>
       </c>
       <c r="C244">
-        <v>-0.1379825240570734</v>
+        <v>-0.1365957603144862</v>
       </c>
       <c r="D244">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="E244">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.02609902822767238</v>
+        <v>0.008186166298749201</v>
       </c>
       <c r="C245">
-        <v>-0.1249391530098977</v>
+        <v>-0.12432125780047</v>
       </c>
       <c r="D245">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E245">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.08693972179289035</v>
+        <v>0.05636503067484681</v>
       </c>
       <c r="C246">
-        <v>-0.09709744298548727</v>
+        <v>-0.1121783876500858</v>
       </c>
       <c r="D246">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E246">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.02410015649452264</v>
+        <v>0.007460366801367775</v>
       </c>
       <c r="C247">
-        <v>-0.1616134985499605</v>
+        <v>-0.1540905480540111</v>
       </c>
       <c r="D247">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="E247">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/market_performers/performance.xlsx
+++ b/scripts/market_performers/performance.xlsx
@@ -1152,16 +1152,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.001451555685097015</v>
+        <v>-0.003823802920185497</v>
       </c>
       <c r="C2">
-        <v>-0.04167858417869383</v>
+        <v>-0.02733054051867558</v>
       </c>
       <c r="D2">
         <v>0.95</v>
       </c>
       <c r="E2">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1169,10 +1169,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.0009041297615695289</v>
+        <v>-0.001910628071618769</v>
       </c>
       <c r="C3">
-        <v>-0.03521381501344703</v>
+        <v>-0.01246792130025672</v>
       </c>
       <c r="D3">
         <v>1.25</v>
@@ -1186,10 +1186,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.005424377791959122</v>
+        <v>-0.007329509241555167</v>
       </c>
       <c r="C4">
-        <v>-0.03191819026960029</v>
+        <v>-0.02367601246105926</v>
       </c>
       <c r="D4">
         <v>0.97</v>
@@ -1203,16 +1203,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.01100110011001096</v>
+        <v>0.01095290251916754</v>
       </c>
       <c r="C5">
-        <v>-0.08953722334004012</v>
+        <v>-0.07995951417004057</v>
       </c>
       <c r="D5">
         <v>0.9399999999999999</v>
       </c>
       <c r="E5">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.02094577229503996</v>
+        <v>0.02432119418350278</v>
       </c>
       <c r="C6">
-        <v>-0.07877487784531045</v>
+        <v>-0.06713018460800778</v>
       </c>
       <c r="D6">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="E6">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1237,10 +1237,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.0175644028103046</v>
+        <v>0.01242718446601943</v>
       </c>
       <c r="C7">
-        <v>-0.07291286912139984</v>
+        <v>-0.05704821494295188</v>
       </c>
       <c r="D7">
         <v>0.99</v>
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.005770816158285218</v>
+        <v>-0.0104024089789215</v>
       </c>
       <c r="C8">
-        <v>-0.04152340650621526</v>
+        <v>-0.03218085106382979</v>
       </c>
       <c r="D8">
         <v>0.97</v>
@@ -1271,10 +1271,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.001643964302489511</v>
+        <v>-0.004669624095260336</v>
       </c>
       <c r="C9">
-        <v>-0.0658445276370843</v>
+        <v>-0.05167037861915367</v>
       </c>
       <c r="D9">
         <v>0.91</v>
@@ -1288,10 +1288,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.009944751381215478</v>
+        <v>0.007726269315673296</v>
       </c>
       <c r="C10">
-        <v>-0.08069458631256381</v>
+        <v>-0.06604747162022698</v>
       </c>
       <c r="D10">
         <v>0.83</v>
@@ -1305,16 +1305,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.0005602240896357927</v>
+        <v>-0.009428729894619963</v>
       </c>
       <c r="C11">
-        <v>-0.07991696938245976</v>
+        <v>-0.06934306569343068</v>
       </c>
       <c r="D11">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E11">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.002244668911335487</v>
+        <v>-0.006711409395973036</v>
       </c>
       <c r="C12">
-        <v>-0.04108108108108106</v>
+        <v>-0.02941176470588244</v>
       </c>
       <c r="D12">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1339,10 +1339,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.009354997538158469</v>
+        <v>0.003419638495359092</v>
       </c>
       <c r="C13">
-        <v>-0.1013783903957314</v>
+        <v>-0.08760107816711586</v>
       </c>
       <c r="D13">
         <v>0.9399999999999999</v>
@@ -1356,16 +1356,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.00438212094653825</v>
+        <v>0.00540145985401453</v>
       </c>
       <c r="C14">
-        <v>-0.02101021729745291</v>
+        <v>-0.01069364161849718</v>
       </c>
       <c r="D14">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="E14">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.02736726874657909</v>
+        <v>0.02189381499726339</v>
       </c>
       <c r="C15">
-        <v>-0.04027556968733447</v>
+        <v>-0.02455953016550992</v>
       </c>
       <c r="D15">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E15">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.005405405405405387</v>
+        <v>0.002066115702479341</v>
       </c>
       <c r="C16">
-        <v>-0.1061618411284335</v>
+        <v>-0.098575712143928</v>
       </c>
       <c r="D16">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="E16">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.0005192107995846102</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>-0.05522682445759367</v>
+        <v>-0.0413140866102539</v>
       </c>
       <c r="D17">
         <v>0.88</v>
       </c>
       <c r="E17">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>-0.01516760200212341</v>
+        <v>-0.01154664235794586</v>
       </c>
       <c r="C18">
-        <v>-0.05135603000577045</v>
+        <v>-0.04601360150484729</v>
       </c>
       <c r="D18">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="E18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-0.001250781738586618</v>
+        <v>-0.003740648379052372</v>
       </c>
       <c r="C19">
-        <v>-0.1232876712328766</v>
+        <v>-0.1146179401993356</v>
       </c>
       <c r="D19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.00305064063453326</v>
+        <v>-0.004857316332726155</v>
       </c>
       <c r="C20">
-        <v>-0.08338028169014092</v>
+        <v>-0.06609686609686609</v>
       </c>
       <c r="D20">
         <v>0.93</v>
       </c>
       <c r="E20">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.009774755631109267</v>
+        <v>-0.001258389261744915</v>
       </c>
       <c r="C21">
-        <v>-0.1176024279210926</v>
+        <v>-0.09777607361963191</v>
       </c>
       <c r="D21">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E21">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.02006532897806812</v>
+        <v>0.01673640167364013</v>
       </c>
       <c r="C22">
-        <v>-0.1083784910379325</v>
+        <v>-0.0969237252423094</v>
       </c>
       <c r="D22">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="E22">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.003476245654692763</v>
+        <v>0.01116673084328076</v>
       </c>
       <c r="C23">
-        <v>-0.130821917808219</v>
+        <v>-0.1063168795305488</v>
       </c>
       <c r="D23">
         <v>1.03</v>
       </c>
       <c r="E23">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.02068641278796421</v>
+        <v>0.0182669789227167</v>
       </c>
       <c r="C24">
-        <v>-0.08556611927398437</v>
+        <v>-0.07239424334932404</v>
       </c>
       <c r="D24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.001956947162426503</v>
+        <v>0.008469055374592908</v>
       </c>
       <c r="C25">
-        <v>-0.03503184713375796</v>
+        <v>-0.02294455066921602</v>
       </c>
       <c r="D25">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E25">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.003021148036253819</v>
+        <v>-0.003012048192771127</v>
       </c>
       <c r="C26">
-        <v>-0.08426966292134831</v>
+        <v>-0.06232294617563728</v>
       </c>
       <c r="D26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.006465517241379234</v>
+        <v>0.006444683136412383</v>
       </c>
       <c r="C27">
-        <v>-0.08639523336643505</v>
+        <v>-0.0729270729270729</v>
       </c>
       <c r="D27">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E27">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.0005347593582889338</v>
+        <v>-0.001595744680851183</v>
       </c>
       <c r="C28">
-        <v>-0.1223227034745359</v>
+        <v>-0.1078244274809159</v>
       </c>
       <c r="D28">
         <v>1.23</v>
@@ -1611,16 +1611,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.0009645526886905992</v>
+        <v>-0.0002396357536543976</v>
       </c>
       <c r="C29">
-        <v>-0.1053777487480948</v>
+        <v>-0.08797009016934243</v>
       </c>
       <c r="D29">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E29">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.03274853801169594</v>
+        <v>0.02674418604651165</v>
       </c>
       <c r="C30">
-        <v>-0.1597222222222223</v>
+        <v>-0.1441441441441442</v>
       </c>
       <c r="D30">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="E30">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1645,10 +1645,10 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.00561167227833895</v>
+        <v>0.003359462486002242</v>
       </c>
       <c r="C31">
-        <v>-0.07127882599580708</v>
+        <v>-0.05714285714285708</v>
       </c>
       <c r="D31">
         <v>0.92</v>
@@ -1662,16 +1662,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.002339181286549774</v>
+        <v>-0.001748761294083327</v>
       </c>
       <c r="C32">
-        <v>-0.0743869209809264</v>
+        <v>-0.06147091108671782</v>
       </c>
       <c r="D32">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="E32">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.03111111111111114</v>
+        <v>-0.02965019433647968</v>
       </c>
       <c r="C33">
-        <v>-0.07841119571928384</v>
+        <v>-0.06600249066002489</v>
       </c>
       <c r="D33">
         <v>0.82</v>
       </c>
       <c r="E33">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.03242384601009153</v>
+        <v>-0.02256632990274752</v>
       </c>
       <c r="C34">
-        <v>-0.0295186194368755</v>
+        <v>-0.0247858574813195</v>
       </c>
       <c r="D34">
         <v>0.98</v>
@@ -1713,10 +1713,10 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.004455760661998767</v>
+        <v>-0.003773584905660442</v>
       </c>
       <c r="C35">
-        <v>-0.09053738317757005</v>
+        <v>-0.07642563198118768</v>
       </c>
       <c r="D35">
         <v>1.44</v>
@@ -1730,13 +1730,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.004129955947136567</v>
+        <v>0.01018161805173357</v>
       </c>
       <c r="C36">
-        <v>-0.1153281096963761</v>
+        <v>-0.1018793273986151</v>
       </c>
       <c r="D36">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E36">
         <v>0.9</v>
@@ -1747,10 +1747,10 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.005507955936352582</v>
+        <v>0.006093845216331511</v>
       </c>
       <c r="C37">
-        <v>-0.06594036697247713</v>
+        <v>-0.05658198614318709</v>
       </c>
       <c r="D37">
         <v>0.98</v>
@@ -1764,16 +1764,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.008032128514056186</v>
+        <v>0.006354468849288605</v>
       </c>
       <c r="C38">
-        <v>-0.06632057105775457</v>
+        <v>-0.05632514375326723</v>
       </c>
       <c r="D38">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E38">
         <v>0.93</v>
-      </c>
-      <c r="E38">
-        <v>0.9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>-0.001430615164520785</v>
+        <v>-0.002136752136752099</v>
       </c>
       <c r="C39">
-        <v>-0.1209626345788474</v>
+        <v>-0.1067092651757188</v>
       </c>
       <c r="D39">
         <v>0.98</v>
@@ -1801,13 +1801,13 @@
         <v>0.002679938744257297</v>
       </c>
       <c r="C40">
-        <v>-0.09895833333333327</v>
+        <v>-0.086074177746676</v>
       </c>
       <c r="D40">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>-0.006418485237483936</v>
+        <v>-0.007692307692307706</v>
       </c>
       <c r="C41">
-        <v>-0.04785276073619631</v>
+        <v>-0.03945745992601738</v>
       </c>
       <c r="D41">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E41">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>-0.004484943404285593</v>
+        <v>0.009338409597011798</v>
       </c>
       <c r="C42">
-        <v>-0.1403551895778283</v>
+        <v>-0.1289222373806276</v>
       </c>
       <c r="D42">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="E42">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1849,13 +1849,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>-0.01151631477927064</v>
+        <v>-0.004784688995215209</v>
       </c>
       <c r="C43">
-        <v>-0.1156462585034013</v>
+        <v>-0.1071122536418166</v>
       </c>
       <c r="D43">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="E43">
         <v>1.18</v>
@@ -1866,16 +1866,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.05403930131004366</v>
+        <v>-0.05226748654880858</v>
       </c>
       <c r="C44">
-        <v>-0.03732290124762106</v>
+        <v>-0.02094912355707562</v>
       </c>
       <c r="D44">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E44">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.04389395914819646</v>
+        <v>0.01724137931034487</v>
       </c>
       <c r="C45">
-        <v>-0.08096192384769543</v>
+        <v>-0.0691747572815534</v>
       </c>
       <c r="D45">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="E45">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.002433090024330959</v>
+        <v>-0.004836759371221399</v>
       </c>
       <c r="C46">
-        <v>-0.08174692049272121</v>
+        <v>-0.06908267270668172</v>
       </c>
       <c r="D46">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E46">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.02359882005899707</v>
+        <v>-0.004554865424430708</v>
       </c>
       <c r="C47">
-        <v>-0.1355685131195335</v>
+        <v>-0.1409954751131222</v>
       </c>
       <c r="D47">
         <v>1.36</v>
@@ -1934,16 +1934,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.002654867256637244</v>
+        <v>-0.003533568904593618</v>
       </c>
       <c r="C48">
-        <v>-0.1008737092930899</v>
+        <v>-0.09672262190247791</v>
       </c>
       <c r="D48">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E48">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.009756097560975618</v>
+        <v>0.003462603878116424</v>
       </c>
       <c r="C49">
-        <v>-0.1282051282051282</v>
+        <v>-0.1158348736906962</v>
       </c>
       <c r="D49">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E49">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.009879253567508241</v>
+        <v>-0.006586169045005494</v>
       </c>
       <c r="C50">
-        <v>-0.06481481481481476</v>
+        <v>-0.05497925311203313</v>
       </c>
       <c r="D50">
         <v>0.93</v>
       </c>
       <c r="E50">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.02998355218809812</v>
+        <v>0.02982926146587234</v>
       </c>
       <c r="C51">
-        <v>-0.1363021831391589</v>
+        <v>-0.1200977484637832</v>
       </c>
       <c r="D51">
         <v>0.99</v>
@@ -2002,16 +2002,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.009633911368015356</v>
+        <v>0.01444390948483381</v>
       </c>
       <c r="C52">
-        <v>-0.07387387387387398</v>
+        <v>-0.05722070844686651</v>
       </c>
       <c r="D52">
-        <v>0.9399999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="E52">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>-0.01470588235294109</v>
+        <v>-0.01100917431192654</v>
       </c>
       <c r="C53">
-        <v>-0.04938271604938266</v>
+        <v>-0.03546099290780145</v>
       </c>
       <c r="D53">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="E53">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.02614379084967319</v>
+        <v>0.0292841648590021</v>
       </c>
       <c r="C54">
-        <v>-0.1412429378531073</v>
+        <v>-0.1306818181818181</v>
       </c>
       <c r="D54">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="E54">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>-0.05167464114832544</v>
+        <v>-0.06815114709851551</v>
       </c>
       <c r="C55">
-        <v>0.001496191512513588</v>
+        <v>0.0001367240907847812</v>
       </c>
       <c r="D55">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="E55">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.07238605898123331</v>
+        <v>0.07516778523489939</v>
       </c>
       <c r="C56">
-        <v>0.01637107776261939</v>
+        <v>0.02754820936639121</v>
       </c>
       <c r="D56">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="E56">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>-0.01263583522870863</v>
+        <v>0.002550369803621421</v>
       </c>
       <c r="C57">
-        <v>-0.06127277028625507</v>
+        <v>-0.07330210772833726</v>
       </c>
       <c r="D57">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="E57">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-0.01387645478961494</v>
+        <v>-0.003144654088050187</v>
       </c>
       <c r="C58">
-        <v>-0.05449127288207747</v>
+        <v>-0.0416130416130417</v>
       </c>
       <c r="D58">
         <v>0.5600000000000001</v>
       </c>
       <c r="E58">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>-0.08189910979228493</v>
+        <v>-0.08179104477611941</v>
       </c>
       <c r="C59">
-        <v>-0.0381984036488027</v>
+        <v>-0.04261363636363634</v>
       </c>
       <c r="D59">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="E59">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2138,13 +2138,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.08781362007168469</v>
+        <v>0.09270927092709282</v>
       </c>
       <c r="C60">
-        <v>-0.05051369863013692</v>
+        <v>-0.03875968992248062</v>
       </c>
       <c r="D60">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E60">
         <v>0.1</v>
@@ -2155,16 +2155,16 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.01697892271662755</v>
+        <v>0.0128205128205127</v>
       </c>
       <c r="C61">
-        <v>-0.1350125944584382</v>
+        <v>-0.1356275303643724</v>
       </c>
       <c r="D61">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="E61">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.005353319057815851</v>
       </c>
       <c r="C62">
-        <v>-0.1170825335892515</v>
+        <v>-0.09990300678952477</v>
       </c>
       <c r="D62">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="E62">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.008708272859216304</v>
+        <v>0.004322766570605111</v>
       </c>
       <c r="C63">
-        <v>-0.1147327249022164</v>
+        <v>-0.09102902374670188</v>
       </c>
       <c r="D63">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="E63">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.01265531523239765</v>
+        <v>0.01125919117647053</v>
       </c>
       <c r="C64">
-        <v>-0.07587091258815981</v>
+        <v>-0.06457167455876028</v>
       </c>
       <c r="D64">
         <v>2.81</v>
       </c>
       <c r="E64">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>-0.005811138014527721</v>
+        <v>-0.0009699321047526466</v>
       </c>
       <c r="C65">
-        <v>-0.06859205776173283</v>
+        <v>-0.04662973222530017</v>
       </c>
       <c r="D65">
         <v>1.26</v>
       </c>
       <c r="E65">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>-0.01959654178674344</v>
+        <v>-0.005151688609043985</v>
       </c>
       <c r="C66">
-        <v>-0.1018614270941055</v>
+        <v>-0.1010362694300519</v>
       </c>
       <c r="D66">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="E66">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.008384146341463337</v>
+        <v>0.008352315869400074</v>
       </c>
       <c r="C67">
-        <v>-0.1032831737346101</v>
+        <v>-0.09454796411318143</v>
       </c>
       <c r="D67">
         <v>1.14</v>
@@ -2274,10 +2274,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.02224694104560629</v>
+        <v>0.03337969401947147</v>
       </c>
       <c r="C68">
-        <v>-0.1238442822384428</v>
+        <v>-0.1131935881627621</v>
       </c>
       <c r="D68">
         <v>1.29</v>
@@ -2291,10 +2291,10 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>-0.0004233700254022577</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>-0.107893242475866</v>
+        <v>-0.0995043842927945</v>
       </c>
       <c r="D69">
         <v>2.09</v>
@@ -2308,16 +2308,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.02542372881355934</v>
+        <v>0.02192242833052279</v>
       </c>
       <c r="C70">
-        <v>-0.101071975497703</v>
+        <v>-0.08809891808346221</v>
       </c>
       <c r="D70">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E70">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.01165980795610411</v>
+        <v>0.00885558583106264</v>
       </c>
       <c r="C71">
-        <v>-0.08489071903706047</v>
+        <v>-0.06896551724137916</v>
       </c>
       <c r="D71">
         <v>0.88</v>
@@ -2342,16 +2342,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>-0.003849326367885636</v>
+        <v>-0.0008221430528912341</v>
       </c>
       <c r="C72">
-        <v>-0.07692307692307693</v>
+        <v>-0.06020671834625337</v>
       </c>
       <c r="D72">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E72">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.01507537688442212</v>
+        <v>0.01378446115288213</v>
       </c>
       <c r="C73">
-        <v>-0.08554913294797691</v>
+        <v>-0.07549361207897788</v>
       </c>
       <c r="D73">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="E73">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>-0.004651162790697575</v>
+        <v>-0.01291512915129152</v>
       </c>
       <c r="C74">
-        <v>-0.1056160938809724</v>
+        <v>-0.08898305084745761</v>
       </c>
       <c r="D74">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="E74">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>-0.01748174374861699</v>
+        <v>-0.01878868258178605</v>
       </c>
       <c r="C75">
-        <v>-0.09371844071904666</v>
+        <v>-0.07925835370823144</v>
       </c>
       <c r="D75">
         <v>1.28</v>
@@ -2410,16 +2410,16 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.01047904191616766</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C76">
-        <v>-0.04985754985754986</v>
+        <v>-0.03746397694524495</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.01571709233791739</v>
+        <v>0.009778357235984362</v>
       </c>
       <c r="C77">
-        <v>-0.09498207885304659</v>
+        <v>-0.07873303167420817</v>
       </c>
       <c r="D77">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="E77">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>-0.01781548250265104</v>
+        <v>-0.01480854664692195</v>
       </c>
       <c r="C78">
-        <v>-0.08439148271146711</v>
+        <v>-0.07276302851524087</v>
       </c>
       <c r="D78">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E78">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.007050041470832181</v>
+        <v>0.01120331950207469</v>
       </c>
       <c r="C79">
-        <v>-0.09237962845949703</v>
+        <v>-0.08163006220642377</v>
       </c>
       <c r="D79">
         <v>0.74</v>
@@ -2478,10 +2478,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>-0.01194539249146756</v>
+        <v>-0.01358234295415963</v>
       </c>
       <c r="C80">
-        <v>-0.1415929203539823</v>
+        <v>-0.1279761904761904</v>
       </c>
       <c r="D80">
         <v>0.89</v>
@@ -2495,16 +2495,16 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.01538987688098497</v>
+        <v>0.01129750085587117</v>
       </c>
       <c r="C81">
-        <v>-0.07484076433121026</v>
+        <v>-0.06491845219059797</v>
       </c>
       <c r="D81">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="E81">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.006825938566552919</v>
+        <v>0.008532423208191224</v>
       </c>
       <c r="C82">
-        <v>-0.03915910964550699</v>
+        <v>-0.02939958592132514</v>
       </c>
       <c r="D82">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="E82">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.05653450807635826</v>
+        <v>0.02234234234234244</v>
       </c>
       <c r="C83">
-        <v>-0.1112587180338758</v>
+        <v>-0.09290709290709287</v>
       </c>
       <c r="D83">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="E83">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>-0.001199040767386092</v>
+        <v>0.002403846153846156</v>
       </c>
       <c r="C84">
-        <v>-0.07142857142857149</v>
+        <v>-0.05975197294250287</v>
       </c>
       <c r="D84">
         <v>1.01</v>
@@ -2563,16 +2563,16 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.0005945303210463078</v>
+        <v>-0.005118110236220564</v>
       </c>
       <c r="C85">
-        <v>-0.07690899102728445</v>
+        <v>-0.07140228192859761</v>
       </c>
       <c r="D85">
         <v>0.82</v>
       </c>
       <c r="E85">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.05852737570799228</v>
+        <v>0.05654482974070604</v>
       </c>
       <c r="C86">
-        <v>-0.06579727326615294</v>
+        <v>-0.05106001791579561</v>
       </c>
       <c r="D86">
         <v>0.53</v>
       </c>
       <c r="E86">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>-0.01137423084094739</v>
+        <v>-0.0102439932948407</v>
       </c>
       <c r="C87">
-        <v>-0.06122088920254065</v>
+        <v>-0.04776278409090896</v>
       </c>
       <c r="D87">
         <v>0.89</v>
@@ -2614,16 +2614,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.0003324468085106824</v>
+        <v>-0.00230794592812399</v>
       </c>
       <c r="C88">
-        <v>-0.1446917808219178</v>
+        <v>-0.1336405529953917</v>
       </c>
       <c r="D88">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="E88">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2634,13 +2634,13 @@
         <v>0.005923000987166831</v>
       </c>
       <c r="C89">
-        <v>0.002477700693756194</v>
+        <v>0.005459057071960298</v>
       </c>
       <c r="D89">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E89">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2648,13 +2648,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>-0.01436464088397791</v>
+        <v>-0.01216814159292036</v>
       </c>
       <c r="C90">
-        <v>-0.0973895582329317</v>
+        <v>-0.08678102926337029</v>
       </c>
       <c r="D90">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E90">
         <v>0.76</v>
@@ -2665,13 +2665,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.06814440908592125</v>
+        <v>0.06891624532864371</v>
       </c>
       <c r="C91">
-        <v>-0.1013233260912503</v>
+        <v>-0.0950347567030785</v>
       </c>
       <c r="D91">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="E91">
         <v>0.36</v>
@@ -2682,16 +2682,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.005847953216374353</v>
+        <v>0.004676539360872992</v>
       </c>
       <c r="C92">
-        <v>-0.08060453400503773</v>
+        <v>-0.06896551724137939</v>
       </c>
       <c r="D92">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E92">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.004259850905218227</v>
+        <v>0.01254671649759741</v>
       </c>
       <c r="C93">
-        <v>-0.05558362809499737</v>
+        <v>-0.04451793436784533</v>
       </c>
       <c r="D93">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="E93">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>-0.01402640264026395</v>
+        <v>-0.01159900579950291</v>
       </c>
       <c r="C94">
-        <v>-0.07021604938271603</v>
+        <v>-0.05312500000000005</v>
       </c>
       <c r="D94">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="E94">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.04545454545454532</v>
+        <v>0.02569832402234635</v>
       </c>
       <c r="C95">
-        <v>-0.07374224672639558</v>
+        <v>-0.0946502057613168</v>
       </c>
       <c r="D95">
         <v>1.12</v>
@@ -2750,10 +2750,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>-0.009823795415562097</v>
+        <v>-0.009967294813891856</v>
       </c>
       <c r="C96">
-        <v>-0.1030108725954838</v>
+        <v>-0.1006871406534848</v>
       </c>
       <c r="D96">
         <v>1.73</v>
@@ -2767,10 +2767,10 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>-0.005235602094240881</v>
+        <v>-0.001748251748251711</v>
       </c>
       <c r="C97">
-        <v>-0.09265175718849841</v>
+        <v>-0.06829268292682926</v>
       </c>
       <c r="D97">
         <v>1.36</v>
@@ -2784,16 +2784,16 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>-0.002214616468693222</v>
+        <v>-0.003824476650563633</v>
       </c>
       <c r="C98">
-        <v>-0.0712942061700526</v>
+        <v>-0.05606233371341694</v>
       </c>
       <c r="D98">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>-0.006497725795971502</v>
+        <v>-0.008430609597924825</v>
       </c>
       <c r="C99">
-        <v>-0.07436517533252712</v>
+        <v>-0.06215722120658133</v>
       </c>
       <c r="D99">
         <v>1.05</v>
@@ -2818,10 +2818,10 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.007585335018963204</v>
+        <v>0.007566204287515805</v>
       </c>
       <c r="C100">
-        <v>-0.1216517857142856</v>
+        <v>-0.1082299887260428</v>
       </c>
       <c r="D100">
         <v>0.93</v>
@@ -2835,10 +2835,10 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.1720524017467249</v>
+        <v>0.1194383834550801</v>
       </c>
       <c r="C101">
-        <v>-0.1497406725782165</v>
+        <v>-0.1303797468354431</v>
       </c>
       <c r="D101">
         <v>0.5600000000000001</v>
@@ -2852,13 +2852,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>0.00876232201533401</v>
       </c>
       <c r="C102">
-        <v>-0.07040816326530615</v>
+        <v>-0.05246913580246907</v>
       </c>
       <c r="D102">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E102">
         <v>1.15</v>
@@ -2869,16 +2869,16 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.03404255319148939</v>
+        <v>0.05591397849462361</v>
       </c>
       <c r="C103">
-        <v>-0.1240740740740741</v>
+        <v>-0.1214953271028036</v>
       </c>
       <c r="D103">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="E103">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.02091633466135449</v>
+        <v>0.02087475149105373</v>
       </c>
       <c r="C104">
-        <v>-0.09982014388489208</v>
+        <v>-0.09304426377597112</v>
       </c>
       <c r="D104">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="E104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>-0.009273570324575093</v>
+        <v>-0.00465116279069763</v>
       </c>
       <c r="C105">
-        <v>-0.06936416184971093</v>
+        <v>-0.05822416302765648</v>
       </c>
       <c r="D105">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="E105">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>-0.02185792349726778</v>
+        <v>-0.01704199634814365</v>
       </c>
       <c r="C106">
-        <v>-0.06719817767653764</v>
+        <v>-0.05181347150259072</v>
       </c>
       <c r="D106">
         <v>1.17</v>
@@ -2937,16 +2937,16 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>-0.001552795031055828</v>
+        <v>-0.0004410143329657728</v>
       </c>
       <c r="C107">
-        <v>-0.1222156514882713</v>
+        <v>-0.1039554760484993</v>
       </c>
       <c r="D107">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>-0.0451184548060962</v>
+        <v>-0.05583070688878881</v>
       </c>
       <c r="C108">
-        <v>-0.1028315946348734</v>
+        <v>-0.09144502330682751</v>
       </c>
       <c r="D108">
         <v>1.04</v>
@@ -2971,10 +2971,10 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.005059021922428359</v>
+        <v>0.005894736842105315</v>
       </c>
       <c r="C109">
-        <v>-0.1078838174273859</v>
+        <v>-0.09706889988580128</v>
       </c>
       <c r="D109">
         <v>1.02</v>
@@ -2988,16 +2988,16 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.05142857142857144</v>
+        <v>0.04532577903682719</v>
       </c>
       <c r="C110">
-        <v>-0.1296758104738154</v>
+        <v>-0.1183879093198991</v>
       </c>
       <c r="D110">
         <v>1.17</v>
       </c>
       <c r="E110">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3005,13 +3005,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.0131964809384164</v>
+        <v>0.0146842878120412</v>
       </c>
       <c r="C111">
-        <v>-0.07503410641200543</v>
+        <v>-0.06318681318681318</v>
       </c>
       <c r="D111">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="E111">
         <v>0.9399999999999999</v>
@@ -3022,16 +3022,16 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>-0.03372921615201908</v>
+        <v>-0.03056872037914682</v>
       </c>
       <c r="C112">
-        <v>-0.1670616113744076</v>
+        <v>-0.1633545310015898</v>
       </c>
       <c r="D112">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="E112">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.03065896874377861</v>
+        <v>0.04598160735705711</v>
       </c>
       <c r="C113">
-        <v>-0.1107161897991825</v>
+        <v>-0.09658273381294964</v>
       </c>
       <c r="D113">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="E113">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>-0.0009451795841208352</v>
+        <v>-0.00564440263405455</v>
       </c>
       <c r="C114">
-        <v>-0.09404659188956002</v>
+        <v>-0.07247223845704276</v>
       </c>
       <c r="D114">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E114">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>-0.02060085836909882</v>
+        <v>-0.02303754266211599</v>
       </c>
       <c r="C115">
-        <v>-0.08668242710795909</v>
+        <v>-0.0768621236133122</v>
       </c>
       <c r="D115">
         <v>1.06</v>
@@ -3090,13 +3090,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.01959387246170294</v>
+        <v>0.01918976545842211</v>
       </c>
       <c r="C116">
-        <v>-0.07138136153337732</v>
+        <v>-0.06589018302828617</v>
       </c>
       <c r="D116">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="E116">
         <v>1.38</v>
@@ -3107,10 +3107,10 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>-0.002016129032258022</v>
+        <v>-0.004024144869215206</v>
       </c>
       <c r="C117">
-        <v>-0.06427221172022682</v>
+        <v>-0.05882352941176464</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3124,16 +3124,16 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.02722772277227711</v>
+        <v>0.01474201474201476</v>
       </c>
       <c r="C118">
-        <v>-0.1066666666666666</v>
+        <v>-0.0961968680089485</v>
       </c>
       <c r="D118">
         <v>0.83</v>
       </c>
       <c r="E118">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.007859454461396249</v>
+        <v>0.01617375231053599</v>
       </c>
       <c r="C119">
-        <v>-0.1176711767117673</v>
+        <v>-0.106198347107438</v>
       </c>
       <c r="D119">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="E119">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.01784266017842666</v>
+        <v>0.01374680306905361</v>
       </c>
       <c r="C120">
-        <v>-0.2188813861638425</v>
+        <v>-0.2015282994430773</v>
       </c>
       <c r="D120">
         <v>0.96</v>
@@ -3175,16 +3175,16 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.02590673575129528</v>
+        <v>0.02982326951399115</v>
       </c>
       <c r="C121">
-        <v>-0.07253886010362694</v>
+        <v>-0.05853658536585371</v>
       </c>
       <c r="D121">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="E121">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.02019089574155643</v>
+        <v>0.0195571955719557</v>
       </c>
       <c r="C122">
-        <v>-0.03530259365994232</v>
+        <v>-0.01089324618736376</v>
       </c>
       <c r="D122">
         <v>0.23</v>
@@ -3209,10 +3209,10 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.01183431952662723</v>
+        <v>0.005893909626719062</v>
       </c>
       <c r="C123">
-        <v>-0.09694793536804316</v>
+        <v>-0.07818181818181824</v>
       </c>
       <c r="D123">
         <v>1.16</v>
@@ -3226,16 +3226,16 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>-0.09616677874915942</v>
+        <v>-0.04452296819787986</v>
       </c>
       <c r="C124">
-        <v>0.1218343600273784</v>
+        <v>-0.002682763246143605</v>
       </c>
       <c r="D124">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="E124">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3243,13 +3243,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>-0.0172786177105832</v>
+        <v>-0.03789473684210533</v>
       </c>
       <c r="C125">
-        <v>-0.1199226305609285</v>
+        <v>-0.09393346379647748</v>
       </c>
       <c r="D125">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -3260,16 +3260,16 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.06840390879478832</v>
+        <v>0.06188925081433228</v>
       </c>
       <c r="C126">
-        <v>-0.1508379888268156</v>
+        <v>-0.1424581005586592</v>
       </c>
       <c r="D126">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="E126">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>-0.01020315204518528</v>
+        <v>-0.008050498582014381</v>
       </c>
       <c r="C127">
-        <v>-0.04040669646770096</v>
+        <v>-0.03081405615398212</v>
       </c>
       <c r="D127">
         <v>1.3</v>
@@ -3294,16 +3294,16 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.01226993865030676</v>
+        <v>0.0122850122850123</v>
       </c>
       <c r="C128">
-        <v>-0.1201298701298702</v>
+        <v>-0.1092896174863389</v>
       </c>
       <c r="D128">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E128">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.000752823086574572</v>
+        <v>0.002001000500250183</v>
       </c>
       <c r="C129">
-        <v>-0.08633425669436748</v>
+        <v>-0.07454714352066875</v>
       </c>
       <c r="D129">
         <v>1.15</v>
@@ -3328,16 +3328,16 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>-0.009128630705394106</v>
+        <v>-0.01963993453355155</v>
       </c>
       <c r="C130">
-        <v>-0.1256467110125647</v>
+        <v>-0.09602400600150042</v>
       </c>
       <c r="D130">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="E130">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.01405405405405395</v>
+        <v>0.01949106659447755</v>
       </c>
       <c r="C131">
-        <v>-0.1032998565279771</v>
+        <v>-0.09135559921414535</v>
       </c>
       <c r="D131">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="E131">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.02605416523825851</v>
+        <v>0.01197809719370284</v>
       </c>
       <c r="C132">
-        <v>-0.07886435331230283</v>
+        <v>-0.06924058710912574</v>
       </c>
       <c r="D132">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E132">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>-0.01601747360757191</v>
+        <v>-0.01711580480699204</v>
       </c>
       <c r="C133">
-        <v>-0.08316498316498327</v>
+        <v>-0.06085470085470084</v>
       </c>
       <c r="D133">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="E133">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.01879291651608238</v>
+        <v>0.0172786177105832</v>
       </c>
       <c r="C134">
-        <v>-0.09301555776233035</v>
+        <v>-0.07797400866377868</v>
       </c>
       <c r="D134">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="E134">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.01434087148372864</v>
+        <v>0.0082735797021512</v>
       </c>
       <c r="C135">
-        <v>-0.09154929577464786</v>
+        <v>-0.08062880324543613</v>
       </c>
       <c r="D135">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="E135">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3430,13 +3430,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.01474010861132671</v>
+        <v>0.008474576271186363</v>
       </c>
       <c r="C136">
-        <v>-0.1164713990351482</v>
+        <v>-0.1061026352288488</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E136">
         <v>0.9399999999999999</v>
@@ -3447,10 +3447,10 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>-0.008793844308983665</v>
+        <v>-0.006994404476418753</v>
       </c>
       <c r="C137">
-        <v>-0.1219770520741394</v>
+        <v>-0.1077128845296477</v>
       </c>
       <c r="D137">
         <v>1.09</v>
@@ -3464,10 +3464,10 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.04959678137183344</v>
+        <v>0.0280569804519618</v>
       </c>
       <c r="C138">
-        <v>-0.1563170468205543</v>
+        <v>-0.1354408754405677</v>
       </c>
       <c r="D138">
         <v>0.91</v>
@@ -3481,16 +3481,16 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.01749271137026249</v>
+        <v>0.01671511627906974</v>
       </c>
       <c r="C139">
-        <v>-0.1219354838709677</v>
+        <v>-0.1032679738562092</v>
       </c>
       <c r="D139">
         <v>1.93</v>
       </c>
       <c r="E139">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.03160000000000007</v>
+        <v>0.02833200319233837</v>
       </c>
       <c r="C140">
-        <v>-0.1584867075664621</v>
+        <v>-0.140302613480055</v>
       </c>
       <c r="D140">
         <v>1.05</v>
@@ -3515,16 +3515,16 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.03991212010252642</v>
+        <v>0.045137614678899</v>
       </c>
       <c r="C141">
-        <v>-0.1294871794871795</v>
+        <v>-0.1193163495646565</v>
       </c>
       <c r="D141">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="E141">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.008392511297611356</v>
+        <v>0.006422607578676904</v>
       </c>
       <c r="C142">
-        <v>-0.1099537037037037</v>
+        <v>-0.09731934731934738</v>
       </c>
       <c r="D142">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>-0.005235602094240842</v>
       </c>
       <c r="C143">
-        <v>-0.05985037406483785</v>
+        <v>-0.04761904761904771</v>
       </c>
       <c r="D143">
         <v>0.85</v>
       </c>
       <c r="E143">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3566,13 +3566,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.01405622489959833</v>
+        <v>0.008637873754152795</v>
       </c>
       <c r="C144">
-        <v>-0.1054852320675105</v>
+        <v>-0.09234507897934381</v>
       </c>
       <c r="D144">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E144">
         <v>0.92</v>
@@ -3583,16 +3583,16 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>-0.01766304347826086</v>
+        <v>-0.01839890389508725</v>
       </c>
       <c r="C145">
-        <v>-0.09911660777385148</v>
+        <v>-0.07637145930441014</v>
       </c>
       <c r="D145">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="E145">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.004039497307001747</v>
+        <v>0.004934948407357436</v>
       </c>
       <c r="C146">
-        <v>-0.09135600163867272</v>
+        <v>-0.07743271221532096</v>
       </c>
       <c r="D146">
         <v>1.34</v>
@@ -3617,10 +3617,10 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.01468926553672321</v>
+        <v>0.004484304932735573</v>
       </c>
       <c r="C147">
-        <v>-0.05738575982996811</v>
+        <v>-0.05246252676659533</v>
       </c>
       <c r="D147">
         <v>0.96</v>
@@ -3634,10 +3634,10 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>-0.02057228352347116</v>
+        <v>-0.01200525229788033</v>
       </c>
       <c r="C148">
-        <v>-0.05345968174503851</v>
+        <v>-0.03535991340429365</v>
       </c>
       <c r="D148">
         <v>0.9399999999999999</v>
@@ -3651,16 +3651,16 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>-0.006088280060882805</v>
+        <v>-0.003030303030302966</v>
       </c>
       <c r="C149">
-        <v>-0.09999999999999994</v>
+        <v>-0.09128630705394192</v>
       </c>
       <c r="D149">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="E149">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.001828631138975997</v>
+        <v>0.001561686621551219</v>
       </c>
       <c r="C150">
-        <v>-0.1189314750290359</v>
+        <v>-0.09992946155654837</v>
       </c>
       <c r="D150">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E150">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3685,13 +3685,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>-0.000797448165869352</v>
+        <v>0.002384737678855284</v>
       </c>
       <c r="C151">
-        <v>-0.1489071038251366</v>
+        <v>-0.1357684355616816</v>
       </c>
       <c r="D151">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E151">
         <v>0.88</v>
@@ -3702,16 +3702,16 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>-0.05395935529081987</v>
+        <v>-0.06001395673412427</v>
       </c>
       <c r="C152">
-        <v>-0.1158612143742256</v>
+        <v>-0.1092384519350812</v>
       </c>
       <c r="D152">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E152">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.02097505668934236</v>
+        <v>0.02779353374929107</v>
       </c>
       <c r="C153">
-        <v>-0.07263157894736837</v>
+        <v>-0.06170212765957441</v>
       </c>
       <c r="D153">
         <v>1.25</v>
       </c>
       <c r="E153">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>-0.03753609239653513</v>
+        <v>-0.03929084810733103</v>
       </c>
       <c r="C154">
-        <v>-0.05563093622795105</v>
+        <v>-0.05459508644222012</v>
       </c>
       <c r="D154">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="E154">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.01604729729729729</v>
+        <v>0.00250836120401345</v>
       </c>
       <c r="C155">
-        <v>-0.1245366938472943</v>
+        <v>-0.1150971599402092</v>
       </c>
       <c r="D155">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E155">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>-0.007936507936507972</v>
+        <v>-0.007401735579377324</v>
       </c>
       <c r="C156">
-        <v>-0.07391511683357178</v>
+        <v>-0.06218487394957981</v>
       </c>
       <c r="D156">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E156">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>-0.01416579223504712</v>
+        <v>-0.01823866597186022</v>
       </c>
       <c r="C157">
-        <v>-0.1114245416078984</v>
+        <v>-0.09753787878787883</v>
       </c>
       <c r="D157">
         <v>0.97</v>
@@ -3804,10 +3804,10 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.01122678097570937</v>
+        <v>0.004659643435980572</v>
       </c>
       <c r="C158">
-        <v>-0.09850304934392906</v>
+        <v>-0.08804914370811613</v>
       </c>
       <c r="D158">
         <v>0.98</v>
@@ -3821,10 +3821,10 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>-0.0169014084507042</v>
+        <v>-0.0168855534709193</v>
       </c>
       <c r="C159">
-        <v>-0.04079782411604715</v>
+        <v>-0.02383134738771764</v>
       </c>
       <c r="D159">
         <v>0.92</v>
@@ -3838,16 +3838,16 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.001300390117035112</v>
+        <v>0.006501950585175558</v>
       </c>
       <c r="C160">
-        <v>-0.097877358490566</v>
+        <v>-0.08233890214797131</v>
       </c>
       <c r="D160">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>-0.002958579881656685</v>
+        <v>-0.002941176470588319</v>
       </c>
       <c r="C161">
-        <v>-0.103448275862069</v>
+        <v>-0.09866666666666672</v>
       </c>
       <c r="D161">
         <v>1.31</v>
@@ -3872,16 +3872,16 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.01107011070110702</v>
+        <v>0.0128913443830571</v>
       </c>
       <c r="C162">
-        <v>-0.08952702702702692</v>
+        <v>-0.07191780821917797</v>
       </c>
       <c r="D162">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="E162">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>-0.01552328492739105</v>
+        <v>-0.01352705410821647</v>
       </c>
       <c r="C163">
-        <v>-0.1019395579612089</v>
+        <v>-0.08520384791571235</v>
       </c>
       <c r="D163">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="E163">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3906,13 +3906,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>-0.001615508885298892</v>
+        <v>-0.001610305958132068</v>
       </c>
       <c r="C164">
-        <v>-0.105643994211288</v>
+        <v>-0.09104258443465486</v>
       </c>
       <c r="D164">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="E164">
         <v>1.67</v>
@@ -3923,16 +3923,16 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>-0.002358490566037738</v>
+        <v>-0.00470588235294118</v>
       </c>
       <c r="C165">
-        <v>-0.07032967032967039</v>
+        <v>-0.05777777777777783</v>
       </c>
       <c r="D165">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="E165">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3940,13 +3940,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.07250872431174878</v>
+        <v>0.0620663068619892</v>
       </c>
       <c r="C166">
-        <v>-0.07085463842220593</v>
+        <v>-0.04974207811348572</v>
       </c>
       <c r="D166">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="E166">
         <v>0.33</v>
@@ -3957,16 +3957,16 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>-0.005174035747883197</v>
+        <v>-0.005166744950681128</v>
       </c>
       <c r="C167">
-        <v>-0.1230058774139379</v>
+        <v>-0.09647258818529549</v>
       </c>
       <c r="D167">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>-0.01171693735498837</v>
+        <v>-0.02440147329650089</v>
       </c>
       <c r="C168">
-        <v>-0.1976994295333395</v>
+        <v>-0.1777947348340329</v>
       </c>
       <c r="D168">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="E168">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.06108202443280983</v>
+        <v>0.09714484679665754</v>
       </c>
       <c r="C169">
-        <v>-0.1152173913043478</v>
+        <v>-0.1030056355666877</v>
       </c>
       <c r="D169">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="E169">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>-0.003909026297085963</v>
+        <v>-0.007396970764353589</v>
       </c>
       <c r="C170">
-        <v>-0.1276196434157021</v>
+        <v>-0.1153725243634077</v>
       </c>
       <c r="D170">
         <v>1.05</v>
@@ -4025,16 +4025,16 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.001660210293303789</v>
+        <v>0.003891050583657622</v>
       </c>
       <c r="C171">
-        <v>-0.1214041930765481</v>
+        <v>-0.1018886679920477</v>
       </c>
       <c r="D171">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="E171">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.02061855670103094</v>
+        <v>0.01028806584362141</v>
       </c>
       <c r="C172">
-        <v>-0.1297297297297297</v>
+        <v>-0.1213768115942029</v>
       </c>
       <c r="D172">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="E172">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.01699463327370316</v>
+        <v>0.03157581173666964</v>
       </c>
       <c r="C173">
-        <v>-0.1185812599258867</v>
+        <v>-0.1086898750996547</v>
       </c>
       <c r="D173">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="E173">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>-0.02710027100271005</v>
+        <v>-0.03763440860215057</v>
       </c>
       <c r="C174">
-        <v>-0.1116504854368932</v>
+        <v>-0.09336609336609332</v>
       </c>
       <c r="D174">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="E174">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>-0.07813070463672872</v>
+        <v>-0.06470806991446632</v>
       </c>
       <c r="C175">
-        <v>-0.03637005649717506</v>
+        <v>-0.01545650611071177</v>
       </c>
       <c r="D175">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="E175">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>-0.1446593776282591</v>
+        <v>-0.1361031518624642</v>
       </c>
       <c r="C176">
-        <v>0.1373475009838646</v>
+        <v>0.1829668689682619</v>
       </c>
       <c r="D176">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E176">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.01077375122428995</v>
+        <v>-0.001958863858961722</v>
       </c>
       <c r="C177">
-        <v>-0.08920606601248893</v>
+        <v>-0.07601809954751135</v>
       </c>
       <c r="D177">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="E177">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>-0.02304536679536685</v>
+        <v>-0.02284519165024332</v>
       </c>
       <c r="C178">
-        <v>-0.0809506263817244</v>
+        <v>-0.08463719029562264</v>
       </c>
       <c r="D178">
         <v>0.55</v>
       </c>
       <c r="E178">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.02360043907793632</v>
+        <v>0.01953336950623993</v>
       </c>
       <c r="C179">
-        <v>-0.1549953314659197</v>
+        <v>-0.1429915333960489</v>
       </c>
       <c r="D179">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="E179">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.01079365079365084</v>
+        <v>0.01012017710309942</v>
       </c>
       <c r="C180">
-        <v>-0.1008547008547008</v>
+        <v>-0.09845449341728674</v>
       </c>
       <c r="D180">
         <v>0.8</v>
@@ -4198,13 +4198,13 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>-0.09523809523809516</v>
+        <v>-0.088560885608856</v>
       </c>
       <c r="D181">
         <v>1.7</v>
       </c>
       <c r="E181">
-        <v>3.51</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>-0.01686608043822984</v>
+        <v>-0.02071833106315868</v>
       </c>
       <c r="C182">
-        <v>-0.111204174988725</v>
+        <v>-0.1000259470679812</v>
       </c>
       <c r="D182">
         <v>0.88</v>
       </c>
       <c r="E182">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>-0.02713987473903957</v>
+        <v>-0.02286902286902289</v>
       </c>
       <c r="C183">
-        <v>-0.1584507042253521</v>
+        <v>-0.1537102473498233</v>
       </c>
       <c r="D183">
         <v>1.25</v>
@@ -4246,13 +4246,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>-0.03721682847896433</v>
+        <v>-0.04530744336569569</v>
       </c>
       <c r="C184">
-        <v>-0.05792682926829267</v>
+        <v>-0.05069124423963135</v>
       </c>
       <c r="D184">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E184">
         <v>0.49</v>
@@ -4263,16 +4263,16 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>-0.002909796314258112</v>
+        <v>-0.008662175168431169</v>
       </c>
       <c r="C185">
-        <v>-0.07601809954751129</v>
+        <v>-0.06272727272727269</v>
       </c>
       <c r="D185">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="E185">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.001090512540894335</v>
+        <v>-0.002944366961103327</v>
       </c>
       <c r="C186">
-        <v>-0.07518142235123376</v>
+        <v>-0.06154970760233929</v>
       </c>
       <c r="D186">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.001189060642092698</v>
+        <v>-0.004744958481613298</v>
       </c>
       <c r="C187">
-        <v>-0.1006493506493507</v>
+        <v>-0.08287895310796059</v>
       </c>
       <c r="D187">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="E187">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>-0.01332230037236244</v>
+        <v>-0.01944901315789469</v>
       </c>
       <c r="C188">
-        <v>-0.08793123035558745</v>
+        <v>-0.07916793660469378</v>
       </c>
       <c r="D188">
         <v>0.97</v>
@@ -4331,10 +4331,10 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>-0.04225352112676044</v>
+        <v>-0.03229461756373928</v>
       </c>
       <c r="C189">
-        <v>-0.06028556319407718</v>
+        <v>-0.03427638737758433</v>
       </c>
       <c r="D189">
         <v>1.58</v>
@@ -4348,16 +4348,16 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.02727404613375886</v>
+        <v>0.02636590010253412</v>
       </c>
       <c r="C190">
-        <v>-0.03157451585742357</v>
+        <v>-0.02171444791370996</v>
       </c>
       <c r="D190">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4365,13 +4365,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.02280130293159615</v>
+        <v>0.01298701298701302</v>
       </c>
       <c r="C191">
-        <v>-0.07012195121951212</v>
+        <v>-0.06116207951070339</v>
       </c>
       <c r="D191">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="E191">
         <v>1.16</v>
@@ -4382,16 +4382,16 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>-0.009771986970683976</v>
+        <v>-0.01623376623376632</v>
       </c>
       <c r="C192">
-        <v>-0.03459119496855356</v>
+        <v>-0.02539682539682542</v>
       </c>
       <c r="D192">
         <v>1.62</v>
       </c>
       <c r="E192">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>-0.06209850107066386</v>
+        <v>-0.06024744486282941</v>
       </c>
       <c r="C193">
-        <v>-0.1333955223880597</v>
+        <v>-0.1217677480018804</v>
       </c>
       <c r="D193">
         <v>1.08</v>
       </c>
       <c r="E193">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.003351687814220789</v>
+        <v>0.000477783086478686</v>
       </c>
       <c r="C194">
-        <v>-0.08140304434149584</v>
+        <v>-0.06929590017825329</v>
       </c>
       <c r="D194">
         <v>0.6899999999999999</v>
@@ -4433,16 +4433,16 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.1056309083436088</v>
+        <v>0.0887888707037643</v>
       </c>
       <c r="C195">
-        <v>-0.07459831675592966</v>
+        <v>-0.05770720371804802</v>
       </c>
       <c r="D195">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="E195">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.02006688963210704</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="C196">
-        <v>-0.09696969696969705</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="D196">
         <v>1.05</v>
@@ -4467,10 +4467,10 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>-0.01956947162426616</v>
+        <v>-0.0233918128654971</v>
       </c>
       <c r="C197">
-        <v>-0.06077348066298348</v>
+        <v>-0.050185873605948</v>
       </c>
       <c r="D197">
         <v>1.12</v>
@@ -4484,10 +4484,10 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>-0.007076514816452903</v>
+        <v>-0.01115187087307417</v>
       </c>
       <c r="C198">
-        <v>-0.09075043630017454</v>
+        <v>-0.08560258829873278</v>
       </c>
       <c r="D198">
         <v>1.5</v>
@@ -4501,16 +4501,16 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>-0.01164021164021168</v>
+        <v>-0.02318229715489983</v>
       </c>
       <c r="C199">
-        <v>-0.1180688336520077</v>
+        <v>-0.08695652173913038</v>
       </c>
       <c r="D199">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="E199">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>-0.03106009453072251</v>
+        <v>-0.03101820633850306</v>
       </c>
       <c r="C200">
-        <v>-0.1282505910165484</v>
+        <v>-0.1168753726893261</v>
       </c>
       <c r="D200">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="E200">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>-0.001121076233184005</v>
       </c>
       <c r="C201">
-        <v>-0.1062531774275547</v>
+        <v>-0.08805355303810504</v>
       </c>
       <c r="D201">
         <v>1.18</v>
@@ -4552,10 +4552,10 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.007277035031308259</v>
+        <v>0.0003357958361316402</v>
       </c>
       <c r="C202">
-        <v>-0.1005835380835381</v>
+        <v>-0.08458559256390399</v>
       </c>
       <c r="D202">
         <v>1.03</v>
@@ -4569,13 +4569,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.0682769726247987</v>
+        <v>0.0403882279273637</v>
       </c>
       <c r="C203">
-        <v>-0.141832229580574</v>
+        <v>-0.1363004172461752</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E203">
         <v>1.02</v>
@@ -4586,10 +4586,10 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>-0.0244829041789785</v>
+        <v>-0.03312368972746327</v>
       </c>
       <c r="C204">
-        <v>-0.1235492324971921</v>
+        <v>-0.1073850791258478</v>
       </c>
       <c r="D204">
         <v>0.75</v>
@@ -4603,16 +4603,16 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>-0.03320561941251599</v>
+        <v>-0.03684879288437106</v>
       </c>
       <c r="C205">
-        <v>-0.1062355658198614</v>
+        <v>-0.08634772462077007</v>
       </c>
       <c r="D205">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>-0.00746268656716411</v>
+        <v>-0.00710179235711867</v>
       </c>
       <c r="C206">
-        <v>-0.08966801116971761</v>
+        <v>-0.07644110275689216</v>
       </c>
       <c r="D206">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E206">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.00868385345997281</v>
+        <v>0.006231373611487468</v>
       </c>
       <c r="C207">
-        <v>-0.1133446355049649</v>
+        <v>-0.09968238455900319</v>
       </c>
       <c r="D207">
         <v>1.55</v>
       </c>
       <c r="E207">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4654,13 +4654,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.01666666666666668</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>-0.03278688524590168</v>
+        <v>0</v>
       </c>
       <c r="D208">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="E208">
         <v>1.19</v>
@@ -4671,16 +4671,16 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>-0.008038585209003224</v>
+        <v>-0.006420545746388516</v>
       </c>
       <c r="C209">
-        <v>-0.137883008356546</v>
+        <v>-0.1264044943820225</v>
       </c>
       <c r="D209">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="E209">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>-0.07582739840804359</v>
+        <v>-0.0766315789473684</v>
       </c>
       <c r="C210">
-        <v>-0.1522214129643117</v>
+        <v>-0.1281957633308984</v>
       </c>
       <c r="D210">
         <v>0.79</v>
@@ -4705,10 +4705,10 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>-0.008954481386286312</v>
+        <v>-0.004404554142774107</v>
       </c>
       <c r="C211">
-        <v>-0.09855017887403496</v>
+        <v>-0.09042232277526403</v>
       </c>
       <c r="D211">
         <v>1.19</v>
@@ -4722,13 +4722,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.008901061280383425</v>
+        <v>0.005811965811965812</v>
       </c>
       <c r="C212">
-        <v>-0.06847999999999999</v>
+        <v>-0.0562197092084006</v>
       </c>
       <c r="D212">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="E212">
         <v>1.82</v>
@@ -4739,16 +4739,16 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>-0.003913894324853205</v>
+        <v>-0.007782101167315263</v>
       </c>
       <c r="C213">
-        <v>-0.1073943661971831</v>
+        <v>-0.08912655971479497</v>
       </c>
       <c r="D213">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="E213">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>-0.01045296167247379</v>
+        <v>-0.01619121048573646</v>
       </c>
       <c r="C214">
-        <v>-0.1343686698176907</v>
+        <v>-0.1160164271047229</v>
       </c>
       <c r="D214">
         <v>1.01</v>
@@ -4773,16 +4773,16 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.007352941176470595</v>
+        <v>0.008599508599508608</v>
       </c>
       <c r="C215">
-        <v>-0.05970149253731349</v>
+        <v>-0.05336426914153137</v>
       </c>
       <c r="D215">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="E215">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>-0.0118483412322275</v>
+        <v>-0.01069518716577541</v>
       </c>
       <c r="C216">
-        <v>-0.06588498045784472</v>
+        <v>-0.04740406320541765</v>
       </c>
       <c r="D216">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="E216">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>-0.02660753880266069</v>
+        <v>-0.02808573540280856</v>
       </c>
       <c r="C217">
-        <v>-0.1123521681997372</v>
+        <v>-0.1075197889182058</v>
       </c>
       <c r="D217">
         <v>1.12</v>
@@ -4824,16 +4824,16 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.003036437246963509</v>
+        <v>0.006565656565656543</v>
       </c>
       <c r="C218">
-        <v>-0.05955216769890429</v>
+        <v>-0.05544933078393881</v>
       </c>
       <c r="D218">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="E218">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.01476014760147603</v>
+        <v>0.01626016260162603</v>
       </c>
       <c r="C219">
-        <v>-0.1425855513307985</v>
+        <v>-0.1369426751592357</v>
       </c>
       <c r="D219">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E219">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.04743083003952574</v>
+        <v>0.01422319474835887</v>
       </c>
       <c r="C220">
-        <v>-0.05728314238952536</v>
+        <v>-0.03118161925601759</v>
       </c>
       <c r="D220">
         <v>0.47</v>
@@ -4875,13 +4875,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>-0.001753360607831744</v>
+        <v>-0.008726003490401467</v>
       </c>
       <c r="C221">
-        <v>-0.1140304781923279</v>
+        <v>-0.09326974032856382</v>
       </c>
       <c r="D221">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E221">
         <v>1.03</v>
@@ -4892,16 +4892,16 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>-0.0235783633841886</v>
+        <v>-0.007730147575544583</v>
       </c>
       <c r="C222">
-        <v>-0.1897142857142857</v>
+        <v>-0.1698330454807139</v>
       </c>
       <c r="D222">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E222">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.004571248423707462</v>
+        <v>0.001101148340412023</v>
       </c>
       <c r="C223">
-        <v>-0.109014675052411</v>
+        <v>-0.1067304984511406</v>
       </c>
       <c r="D223">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E223">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.02487267558924549</v>
+        <v>0.03350301882325084</v>
       </c>
       <c r="C224">
-        <v>-0.1259553973405927</v>
+        <v>-0.1093881856540084</v>
       </c>
       <c r="D224">
         <v>1.05</v>
       </c>
       <c r="E224">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>-0.02788781492631909</v>
+        <v>-0.03582136657724469</v>
       </c>
       <c r="C225">
-        <v>-0.0868680999418943</v>
+        <v>-0.07095539525982639</v>
       </c>
       <c r="D225">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="E225">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.00505050505050502</v>
+        <v>-0.0006277463904581857</v>
       </c>
       <c r="C226">
-        <v>-0.08526682134570761</v>
+        <v>-0.07096774193548386</v>
       </c>
       <c r="D226">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="E226">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.001327588495842142</v>
+        <v>0.001420454545454656</v>
       </c>
       <c r="C227">
-        <v>-0.1173275276720951</v>
+        <v>-0.09967401934151898</v>
       </c>
       <c r="D227">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="E227">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>-0.02111613876319761</v>
+        <v>-0.01664145234493193</v>
       </c>
       <c r="C228">
-        <v>-0.05150214592274667</v>
+        <v>-0.04604316546762578</v>
       </c>
       <c r="D228">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="E228">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.02626262626262623</v>
+        <v>0.005940594059405896</v>
       </c>
       <c r="C229">
-        <v>-0.1399128022195799</v>
+        <v>-0.1120191349412</v>
       </c>
       <c r="D229">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="E229">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.02464411449563754</v>
+        <v>0.02714723926380358</v>
       </c>
       <c r="C230">
-        <v>-0.1475581091668843</v>
+        <v>-0.1407339208207286</v>
       </c>
       <c r="D230">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E230">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>-0.008242338851708379</v>
+        <v>-0.01834286511368391</v>
       </c>
       <c r="C231">
-        <v>-0.1330360460795244</v>
+        <v>-0.1167869586859134</v>
       </c>
       <c r="D231">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="E231">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>-0.003715689799832184</v>
+        <v>-0.01099032373671005</v>
       </c>
       <c r="C232">
-        <v>-0.1782740718973454</v>
+        <v>-0.1755114141713608</v>
       </c>
       <c r="D232">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="E232">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.01496674057649672</v>
+        <v>0.01303383250138668</v>
       </c>
       <c r="C233">
-        <v>-0.0646675358539765</v>
+        <v>-0.05152471083070453</v>
       </c>
       <c r="D233">
         <v>1.4</v>
@@ -5096,16 +5096,16 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.01755870530992169</v>
+        <v>0.008044030482641733</v>
       </c>
       <c r="C234">
-        <v>-0.04172574437917755</v>
+        <v>-0.02756634437358561</v>
       </c>
       <c r="D234">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="E234">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.01682448427460269</v>
+        <v>0.01798028514616916</v>
       </c>
       <c r="C235">
-        <v>-0.1426925016206872</v>
+        <v>-0.1509887664644869</v>
       </c>
       <c r="D235">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E235">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>-0.01416430594900856</v>
+        <v>-0.02590881703153253</v>
       </c>
       <c r="C236">
-        <v>-0.09246323529411767</v>
+        <v>-0.07660687593423021</v>
       </c>
       <c r="D236">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="E236">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.008176007135424499</v>
+        <v>0.006067781559863835</v>
       </c>
       <c r="C237">
-        <v>-0.08636239409674779</v>
+        <v>-0.06957123098201938</v>
       </c>
       <c r="D237">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="E237">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.02176031178954207</v>
+        <v>0.02037516170763267</v>
       </c>
       <c r="C238">
-        <v>-0.09170112226816303</v>
+        <v>-0.08034647550776587</v>
       </c>
       <c r="D238">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="E238">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.01547491995731071</v>
+        <v>0.0005232862375720336</v>
       </c>
       <c r="C239">
-        <v>-0.09475218658892126</v>
+        <v>-0.09117361784675085</v>
       </c>
       <c r="D239">
         <v>1.13</v>
@@ -5198,16 +5198,16 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.0008326394671106493</v>
+        <v>-0.01800327332242228</v>
       </c>
       <c r="C240">
-        <v>-0.1862210095497953</v>
+        <v>-0.1665510062456627</v>
       </c>
       <c r="D240">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E240">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.01679841897233202</v>
+        <v>0.008763388510223935</v>
       </c>
       <c r="C241">
-        <v>-0.1088314005352363</v>
+        <v>-0.09074573225516611</v>
       </c>
       <c r="D241">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="E241">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>-0.001025613197308375</v>
+        <v>-0.002842758560826358</v>
       </c>
       <c r="C242">
-        <v>-0.03606541879372286</v>
+        <v>-0.01312583341812553</v>
       </c>
       <c r="D242">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="E242">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.002267573696145076</v>
+        <v>0</v>
       </c>
       <c r="C243">
-        <v>-0.08298755186721998</v>
+        <v>-0.07547169811320743</v>
       </c>
       <c r="D243">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="E243">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>-0.008823529411764668</v>
+        <v>-0.001070057279536634</v>
       </c>
       <c r="C244">
-        <v>-0.1365957603144862</v>
+        <v>-0.1100142098571536</v>
       </c>
       <c r="D244">
         <v>1.28</v>
@@ -5283,16 +5283,16 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.008186166298749201</v>
+        <v>0.001553220648698067</v>
       </c>
       <c r="C245">
-        <v>-0.12432125780047</v>
+        <v>-0.108413974085616</v>
       </c>
       <c r="D245">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5300,13 +5300,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.05636503067484681</v>
+        <v>0.03093172387778191</v>
       </c>
       <c r="C246">
-        <v>-0.1121783876500858</v>
+        <v>-0.09695290858725771</v>
       </c>
       <c r="D246">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E246">
         <v>0.36</v>
@@ -5317,16 +5317,16 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.007460366801367775</v>
+        <v>0.005548705302096079</v>
       </c>
       <c r="C247">
-        <v>-0.1540905480540111</v>
+        <v>-0.1349825221833827</v>
       </c>
       <c r="D247">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="E247">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/market_performers/performance.xlsx
+++ b/scripts/market_performers/performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>24h_change</t>
   </si>
@@ -43,9 +43,6 @@
     <t>LTC/USDT</t>
   </si>
   <si>
-    <t>QTUM/USDT</t>
-  </si>
-  <si>
     <t>ADA/USDT</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>ANKR/USDT</t>
   </si>
   <si>
-    <t>WIN/USDT</t>
-  </si>
-  <si>
     <t>COCOS/USDT</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>COTI/USDT</t>
   </si>
   <si>
-    <t>STPT/USDT</t>
-  </si>
-  <si>
     <t>SOL/USDT</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>STMX/USDT</t>
   </si>
   <si>
-    <t>KNC/USDT</t>
-  </si>
-  <si>
     <t>LRC/USDT</t>
   </si>
   <si>
@@ -253,9 +241,6 @@
     <t>MKR/USDT</t>
   </si>
   <si>
-    <t>STORJ/USDT</t>
-  </si>
-  <si>
     <t>MANA/USDT</t>
   </si>
   <si>
@@ -487,9 +472,6 @@
     <t>KLAY/USDT</t>
   </si>
   <si>
-    <t>PHA/USDT</t>
-  </si>
-  <si>
     <t>BOND/USDT</t>
   </si>
   <si>
@@ -514,15 +496,9 @@
     <t>RAY/USDT</t>
   </si>
   <si>
-    <t>QUICK/USDT</t>
-  </si>
-  <si>
     <t>MBOX/USDT</t>
   </si>
   <si>
-    <t>XEC/USDT</t>
-  </si>
-  <si>
     <t>DYDX/USDT</t>
   </si>
   <si>
@@ -553,9 +529,6 @@
     <t>BETA/USDT</t>
   </si>
   <si>
-    <t>RARE/USDT</t>
-  </si>
-  <si>
     <t>LAZIO/USDT</t>
   </si>
   <si>
@@ -598,9 +571,6 @@
     <t>AMP/USDT</t>
   </si>
   <si>
-    <t>PYR/USDT</t>
-  </si>
-  <si>
     <t>RNDR/USDT</t>
   </si>
   <si>
@@ -610,18 +580,12 @@
     <t>MC/USDT</t>
   </si>
   <si>
-    <t>BICO/USDT</t>
-  </si>
-  <si>
     <t>FLUX/USDT</t>
   </si>
   <si>
     <t>FXS/USDT</t>
   </si>
   <si>
-    <t>VOXEL/USDT</t>
-  </si>
-  <si>
     <t>HIGH/USDT</t>
   </si>
   <si>
@@ -673,12 +637,6 @@
     <t>APE/USDT</t>
   </si>
   <si>
-    <t>BSW/USDT</t>
-  </si>
-  <si>
-    <t>STEEM/USDT</t>
-  </si>
-  <si>
     <t>GAL/USDT</t>
   </si>
   <si>
@@ -706,9 +664,6 @@
     <t>APT/USDT</t>
   </si>
   <si>
-    <t>OSMO/USDT</t>
-  </si>
-  <si>
     <t>HFT/USDT</t>
   </si>
   <si>
@@ -736,9 +691,6 @@
     <t>SYN/USDT</t>
   </si>
   <si>
-    <t>VIB/USDT</t>
-  </si>
-  <si>
     <t>SSV/USDT</t>
   </si>
   <si>
@@ -749,9 +701,6 @@
   </si>
   <si>
     <t>BETH/USDT</t>
-  </si>
-  <si>
-    <t>PROM/USDT</t>
   </si>
   <si>
     <t>ID/USDT</t>
@@ -1124,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1152,16 +1101,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.003823802920185497</v>
+        <v>0.01725938061614908</v>
       </c>
       <c r="C2">
-        <v>-0.02733054051867558</v>
+        <v>-0.01675123442613543</v>
       </c>
       <c r="D2">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="E2">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1169,16 +1118,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.001910628071618769</v>
+        <v>0.01235713746101289</v>
       </c>
       <c r="C3">
-        <v>-0.01246792130025672</v>
+        <v>-0.01080883420538931</v>
       </c>
       <c r="D3">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="E3">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1186,16 +1135,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.007329509241555167</v>
+        <v>0.003503184713375869</v>
       </c>
       <c r="C4">
-        <v>-0.02367601246105926</v>
+        <v>-0.01389327439216917</v>
       </c>
       <c r="D4">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1203,16 +1152,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.01095290251916754</v>
+        <v>0.02900107411385602</v>
       </c>
       <c r="C5">
-        <v>-0.07995951417004057</v>
+        <v>-0.01282051282051274</v>
       </c>
       <c r="D5">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1220,16 +1169,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.02432119418350278</v>
+        <v>0.02022104998744033</v>
       </c>
       <c r="C6">
-        <v>-0.06713018460800778</v>
+        <v>-0.0252707581227437</v>
       </c>
       <c r="D6">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="E6">
-        <v>0.77</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1237,16 +1186,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.01242718446601943</v>
+        <v>0.01315789473684202</v>
       </c>
       <c r="C7">
-        <v>-0.05704821494295188</v>
+        <v>-0.02431775195893004</v>
       </c>
       <c r="D7">
+        <v>1.14</v>
+      </c>
+      <c r="E7">
         <v>0.99</v>
-      </c>
-      <c r="E7">
-        <v>0.89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1254,16 +1203,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.0104024089789215</v>
+        <v>0.01460197833254837</v>
       </c>
       <c r="C8">
-        <v>-0.03218085106382979</v>
+        <v>-0.02111858899976792</v>
       </c>
       <c r="D8">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="E8">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1271,16 +1220,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.004669624095260336</v>
+        <v>0.002164502164502166</v>
       </c>
       <c r="C9">
-        <v>-0.05167037861915367</v>
+        <v>-0.007575757575757582</v>
       </c>
       <c r="D9">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="E9">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1288,16 +1237,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.007726269315673296</v>
+        <v>0.003311258278145637</v>
       </c>
       <c r="C10">
-        <v>-0.06604747162022698</v>
+        <v>-0.01803278688524589</v>
       </c>
       <c r="D10">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="E10">
-        <v>0.71</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1305,16 +1254,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.009428729894619963</v>
+        <v>0.007882882882882795</v>
       </c>
       <c r="C11">
-        <v>-0.06934306569343068</v>
+        <v>-0.006726457399103176</v>
       </c>
       <c r="D11">
-        <v>0.71</v>
+        <v>1.31</v>
       </c>
       <c r="E11">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1322,16 +1271,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.006711409395973036</v>
+        <v>0.02372881355932211</v>
       </c>
       <c r="C12">
-        <v>-0.02941176470588244</v>
+        <v>-0.01825168107588856</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="E12">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1339,16 +1288,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.003419638495359092</v>
+        <v>0.01118535735037779</v>
       </c>
       <c r="C13">
-        <v>-0.08760107816711586</v>
+        <v>0.01201817382383118</v>
       </c>
       <c r="D13">
-        <v>0.9399999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="E13">
-        <v>0.9399999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1356,16 +1305,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.00540145985401453</v>
+        <v>-0.01160949868073873</v>
       </c>
       <c r="C14">
-        <v>-0.01069364161849718</v>
+        <v>0.0299890948745911</v>
       </c>
       <c r="D14">
-        <v>0.93</v>
+        <v>1.36</v>
       </c>
       <c r="E14">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1373,16 +1322,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.02189381499726339</v>
+        <v>0.1042092357989375</v>
       </c>
       <c r="C15">
-        <v>-0.02455953016550992</v>
+        <v>-0.03096099718536394</v>
       </c>
       <c r="D15">
-        <v>0.68</v>
+        <v>1.18</v>
       </c>
       <c r="E15">
-        <v>0.54</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1390,16 +1339,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.002066115702479341</v>
+        <v>0.01497160557563253</v>
       </c>
       <c r="C16">
-        <v>-0.098575712143928</v>
+        <v>-0.01477330616403474</v>
       </c>
       <c r="D16">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="E16">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1407,16 +1356,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.01298304566977241</v>
       </c>
       <c r="C17">
-        <v>-0.0413140866102539</v>
+        <v>-0.02995357196345654</v>
       </c>
       <c r="D17">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="E17">
-        <v>0.86</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1424,16 +1373,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>-0.01154664235794586</v>
+        <v>0.01620947630922681</v>
       </c>
       <c r="C18">
-        <v>-0.04601360150484729</v>
+        <v>-0.05631298162418492</v>
       </c>
       <c r="D18">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1441,16 +1390,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-0.003740648379052372</v>
+        <v>0.01814882032667882</v>
       </c>
       <c r="C19">
-        <v>-0.1146179401993356</v>
+        <v>-0.02615933412604042</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E19">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1458,16 +1407,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.004857316332726155</v>
+        <v>0.02081598667776854</v>
       </c>
       <c r="C20">
-        <v>-0.06609686609686609</v>
+        <v>-0.02137279079325934</v>
       </c>
       <c r="D20">
-        <v>0.93</v>
+        <v>1.65</v>
       </c>
       <c r="E20">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1475,16 +1424,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.001258389261744915</v>
+        <v>0.02578018995929449</v>
       </c>
       <c r="C21">
-        <v>-0.09777607361963191</v>
+        <v>-0.01620162016201629</v>
       </c>
       <c r="D21">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="E21">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1492,16 +1441,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.01673640167364013</v>
+        <v>0.0610384462940942</v>
       </c>
       <c r="C22">
-        <v>-0.0969237252423094</v>
+        <v>-0.06753731343283584</v>
       </c>
       <c r="D22">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E22">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1509,16 +1458,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.01116673084328076</v>
+        <v>0.004124656278643374</v>
       </c>
       <c r="C23">
-        <v>-0.1063168795305488</v>
+        <v>-0.008264462809917338</v>
       </c>
       <c r="D23">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="E23">
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1526,16 +1475,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.0182669789227167</v>
+        <v>0.007858546168958855</v>
       </c>
       <c r="C24">
-        <v>-0.07239424334932404</v>
+        <v>-0.002609262883235523</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E24">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1543,16 +1492,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.008469055374592908</v>
+        <v>0.009036144578313166</v>
       </c>
       <c r="C25">
-        <v>-0.02294455066921602</v>
+        <v>-0.02967359050445104</v>
       </c>
       <c r="D25">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="E25">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1560,16 +1509,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.003012048192771127</v>
+        <v>0.02025586353944573</v>
       </c>
       <c r="C26">
-        <v>-0.06232294617563728</v>
+        <v>-0.02413431269674722</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="E26">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1577,16 +1526,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.006444683136412383</v>
+        <v>0.0440944881889764</v>
       </c>
       <c r="C27">
-        <v>-0.0729270729270729</v>
+        <v>-0.02337662337662333</v>
       </c>
       <c r="D27">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="E27">
-        <v>0.89</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1594,16 +1543,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.001595744680851183</v>
+        <v>0.02625298329355612</v>
       </c>
       <c r="C28">
-        <v>-0.1078244274809159</v>
+        <v>-0.04918409561020456</v>
       </c>
       <c r="D28">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="E28">
-        <v>1.29</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1611,16 +1560,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.0002396357536543976</v>
+        <v>-0.02578475336322872</v>
       </c>
       <c r="C29">
-        <v>-0.08797009016934243</v>
+        <v>-0.02420242024202422</v>
       </c>
       <c r="D29">
-        <v>0.9399999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="E29">
-        <v>0.79</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1628,16 +1577,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.02674418604651165</v>
+        <v>0.02219755826859048</v>
       </c>
       <c r="C30">
-        <v>-0.1441441441441442</v>
+        <v>-0.01872246696035244</v>
       </c>
       <c r="D30">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1.24</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1645,16 +1594,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.003359462486002242</v>
+        <v>0.01238836070296736</v>
       </c>
       <c r="C31">
-        <v>-0.05714285714285708</v>
+        <v>-0.01431434297165761</v>
       </c>
       <c r="D31">
-        <v>0.92</v>
+        <v>1.48</v>
       </c>
       <c r="E31">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1662,16 +1611,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.001748761294083327</v>
+        <v>0.003409478349812482</v>
       </c>
       <c r="C32">
-        <v>-0.06147091108671782</v>
+        <v>-0.06205405405405406</v>
       </c>
       <c r="D32">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="E32">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1679,16 +1628,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.02965019433647968</v>
+        <v>0.04634938837920484</v>
       </c>
       <c r="C33">
-        <v>-0.06600249066002489</v>
+        <v>-0.05343441724515901</v>
       </c>
       <c r="D33">
-        <v>0.82</v>
+        <v>1.26</v>
       </c>
       <c r="E33">
-        <v>0.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1696,16 +1645,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.02256632990274752</v>
+        <v>0.04402515723270435</v>
       </c>
       <c r="C34">
-        <v>-0.0247858574813195</v>
+        <v>-0.02837754472547802</v>
       </c>
       <c r="D34">
-        <v>0.98</v>
+        <v>1.28</v>
       </c>
       <c r="E34">
-        <v>0.87</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1713,16 +1662,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-0.003773584905660442</v>
+        <v>0.05758733624454151</v>
       </c>
       <c r="C35">
-        <v>-0.07642563198118768</v>
+        <v>-0.02664155005382122</v>
       </c>
       <c r="D35">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="E35">
-        <v>1.22</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1730,16 +1679,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.01018161805173357</v>
+        <v>0.02297460701330108</v>
       </c>
       <c r="C36">
-        <v>-0.1018793273986151</v>
+        <v>-0.01973684210526314</v>
       </c>
       <c r="D36">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="E36">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1747,16 +1696,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.006093845216331511</v>
+        <v>0.01340445903433195</v>
       </c>
       <c r="C37">
-        <v>-0.05658198614318709</v>
+        <v>-0.01614215952251759</v>
       </c>
       <c r="D37">
-        <v>0.98</v>
+        <v>1.35</v>
       </c>
       <c r="E37">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1764,16 +1713,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.006354468849288605</v>
+        <v>0.03051809794180269</v>
       </c>
       <c r="C38">
-        <v>-0.05632514375326723</v>
+        <v>-0.04461221688400828</v>
       </c>
       <c r="D38">
-        <v>0.9399999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="E38">
-        <v>0.93</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1781,16 +1730,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>-0.002136752136752099</v>
+        <v>0.02077823951643364</v>
       </c>
       <c r="C39">
-        <v>-0.1067092651757188</v>
+        <v>-0.01901565995525727</v>
       </c>
       <c r="D39">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E39">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1798,16 +1747,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.002679938744257297</v>
+        <v>-0.002690265486725682</v>
       </c>
       <c r="C40">
-        <v>-0.086074177746676</v>
+        <v>-0.04897959183673474</v>
       </c>
       <c r="D40">
-        <v>0.9399999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="E40">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1815,16 +1764,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>-0.007692307692307706</v>
+        <v>0.006685768863419405</v>
       </c>
       <c r="C41">
-        <v>-0.03945745992601738</v>
+        <v>-0.03917910447761197</v>
       </c>
       <c r="D41">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="E41">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1832,16 +1781,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.009338409597011798</v>
+        <v>0.2010739856801909</v>
       </c>
       <c r="C42">
-        <v>-0.1289222373806276</v>
+        <v>-0.1135950369023425</v>
       </c>
       <c r="D42">
-        <v>1.28</v>
+        <v>0.78</v>
       </c>
       <c r="E42">
-        <v>1.81</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1849,16 +1798,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>-0.004784688995215209</v>
+        <v>-0.1552238805970148</v>
       </c>
       <c r="C43">
-        <v>-0.1071122536418166</v>
+        <v>-0.00724946695095949</v>
       </c>
       <c r="D43">
-        <v>1.48</v>
+        <v>0.73</v>
       </c>
       <c r="E43">
-        <v>1.18</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1866,16 +1815,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.05226748654880858</v>
+        <v>0.03975903614457837</v>
       </c>
       <c r="C44">
-        <v>-0.02094912355707562</v>
+        <v>-0.0154577883472057</v>
       </c>
       <c r="D44">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="E44">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1883,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.01724137931034487</v>
+        <v>0.036191651244088</v>
       </c>
       <c r="C45">
-        <v>-0.0691747572815534</v>
+        <v>-0.03195979899497493</v>
       </c>
       <c r="D45">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="E45">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1900,16 +1849,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.004836759371221399</v>
+        <v>-0.02294792586054714</v>
       </c>
       <c r="C46">
-        <v>-0.06908267270668172</v>
+        <v>-0.04006820119352085</v>
       </c>
       <c r="D46">
-        <v>1.25</v>
+        <v>0.77</v>
       </c>
       <c r="E46">
-        <v>1.27</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1917,16 +1866,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.004554865424430708</v>
+        <v>0.007554945054945138</v>
       </c>
       <c r="C47">
-        <v>-0.1409954751131222</v>
+        <v>-0.04122340425531919</v>
       </c>
       <c r="D47">
-        <v>1.36</v>
+        <v>0.95</v>
       </c>
       <c r="E47">
-        <v>1.44</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1934,16 +1883,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.003533568904593618</v>
+        <v>0.004390779363336996</v>
       </c>
       <c r="C48">
-        <v>-0.09672262190247791</v>
+        <v>-0.03101604278074869</v>
       </c>
       <c r="D48">
-        <v>0.97</v>
+        <v>1.95</v>
       </c>
       <c r="E48">
-        <v>0.93</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1951,16 +1900,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.003462603878116424</v>
+        <v>0.01580986958145035</v>
       </c>
       <c r="C49">
-        <v>-0.1158348736906962</v>
+        <v>-0.004387667935077944</v>
       </c>
       <c r="D49">
-        <v>0.83</v>
+        <v>1.47</v>
       </c>
       <c r="E49">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1968,16 +1917,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.006586169045005494</v>
+        <v>0.02719465648854967</v>
       </c>
       <c r="C50">
-        <v>-0.05497925311203313</v>
+        <v>-0.02161654135338339</v>
       </c>
       <c r="D50">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="E50">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1985,16 +1934,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.02982926146587234</v>
+        <v>0.01679104477611936</v>
       </c>
       <c r="C51">
-        <v>-0.1200977484637832</v>
+        <v>-0.02380952380952385</v>
       </c>
       <c r="D51">
-        <v>0.99</v>
+        <v>1.24</v>
       </c>
       <c r="E51">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2002,16 +1951,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.01444390948483381</v>
+        <v>0.01372756071805697</v>
       </c>
       <c r="C52">
-        <v>-0.05722070844686651</v>
+        <v>-0.03505154639175258</v>
       </c>
       <c r="D52">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="E52">
-        <v>0.9</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2019,16 +1968,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>-0.01100917431192654</v>
+        <v>-0.06358131487889278</v>
       </c>
       <c r="C53">
-        <v>-0.03546099290780145</v>
+        <v>-0.1136801541425819</v>
       </c>
       <c r="D53">
-        <v>1.11</v>
+        <v>1.46</v>
       </c>
       <c r="E53">
-        <v>1.1</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2036,16 +1985,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.0292841648590021</v>
+        <v>0.1178660049627791</v>
       </c>
       <c r="C54">
-        <v>-0.1306818181818181</v>
+        <v>0.07382550335570476</v>
       </c>
       <c r="D54">
-        <v>0.96</v>
+        <v>0.55</v>
       </c>
       <c r="E54">
-        <v>0.93</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2053,16 +2002,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>-0.06815114709851551</v>
+        <v>0.1334691798267956</v>
       </c>
       <c r="C55">
-        <v>0.0001367240907847812</v>
+        <v>-0.08241371213899991</v>
       </c>
       <c r="D55">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="E55">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2070,16 +2019,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.07516778523489939</v>
+        <v>0.03174603174603171</v>
       </c>
       <c r="C56">
-        <v>0.02754820936639121</v>
+        <v>-0.04614714845450596</v>
       </c>
       <c r="D56">
-        <v>0.44</v>
+        <v>1.11</v>
       </c>
       <c r="E56">
-        <v>0.27</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2087,16 +2036,16 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.002550369803621421</v>
+        <v>-0.03659305993690855</v>
       </c>
       <c r="C57">
-        <v>-0.07330210772833726</v>
+        <v>-0.1200446677833612</v>
       </c>
       <c r="D57">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="E57">
-        <v>0.58</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2104,16 +2053,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-0.003144654088050187</v>
+        <v>-0.03209876543209881</v>
       </c>
       <c r="C58">
-        <v>-0.0416130416130417</v>
+        <v>0.07473309608540918</v>
       </c>
       <c r="D58">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E58">
-        <v>0.53</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2121,16 +2070,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>-0.08179104477611941</v>
+        <v>0.03377218088151118</v>
       </c>
       <c r="C59">
-        <v>-0.04261363636363634</v>
+        <v>-0.0522306855277475</v>
       </c>
       <c r="D59">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="E59">
-        <v>1.3</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2138,16 +2087,16 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.09270927092709282</v>
+        <v>0.0149094781682641</v>
       </c>
       <c r="C60">
-        <v>-0.03875968992248062</v>
+        <v>-0.04024767801857586</v>
       </c>
       <c r="D60">
-        <v>0.15</v>
+        <v>1.09</v>
       </c>
       <c r="E60">
-        <v>0.1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2155,16 +2104,16 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.0128205128205127</v>
+        <v>-0.005641748942172235</v>
       </c>
       <c r="C61">
-        <v>-0.1356275303643724</v>
+        <v>0.01739130434782598</v>
       </c>
       <c r="D61">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="E61">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2172,16 +2121,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>-0.005353319057815851</v>
+        <v>0.01682692307692298</v>
       </c>
       <c r="C62">
-        <v>-0.09990300678952477</v>
+        <v>-0.02652771198484125</v>
       </c>
       <c r="D62">
-        <v>0.84</v>
+        <v>1.23</v>
       </c>
       <c r="E62">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2189,16 +2138,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.004322766570605111</v>
+        <v>0.04521432765707566</v>
       </c>
       <c r="C63">
-        <v>-0.09102902374670188</v>
+        <v>-0.06249999999999997</v>
       </c>
       <c r="D63">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="E63">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2206,16 +2155,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.01125919117647053</v>
+        <v>0.02020958083832341</v>
       </c>
       <c r="C64">
-        <v>-0.06457167455876028</v>
+        <v>-0.04338394793926251</v>
       </c>
       <c r="D64">
-        <v>2.81</v>
+        <v>1.27</v>
       </c>
       <c r="E64">
-        <v>2.42</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2223,16 +2172,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>-0.0009699321047526466</v>
+        <v>0.02591380250954718</v>
       </c>
       <c r="C65">
-        <v>-0.04662973222530017</v>
+        <v>-0.01937046004842611</v>
       </c>
       <c r="D65">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="E65">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2240,16 +2189,16 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>-0.005151688609043985</v>
+        <v>0.006335797254487965</v>
       </c>
       <c r="C66">
-        <v>-0.1010362694300519</v>
+        <v>-0.03165080678527089</v>
       </c>
       <c r="D66">
-        <v>1.43</v>
+        <v>3.61</v>
       </c>
       <c r="E66">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2257,16 +2206,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.008352315869400074</v>
+        <v>0.01073825503355717</v>
       </c>
       <c r="C67">
-        <v>-0.09454796411318143</v>
+        <v>-0.01206434316353885</v>
       </c>
       <c r="D67">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="E67">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2274,16 +2223,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.03337969401947147</v>
+        <v>0.0139764318991504</v>
       </c>
       <c r="C68">
-        <v>-0.1131935881627621</v>
+        <v>-0.0239376008606778</v>
       </c>
       <c r="D68">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="E68">
-        <v>1.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2291,16 +2240,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.02325581395348831</v>
       </c>
       <c r="C69">
-        <v>-0.0995043842927945</v>
+        <v>-0.009791921664626693</v>
       </c>
       <c r="D69">
-        <v>2.09</v>
+        <v>1.61</v>
       </c>
       <c r="E69">
-        <v>0.92</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2308,16 +2257,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.02192242833052279</v>
+        <v>-0.003199268738574094</v>
       </c>
       <c r="C70">
-        <v>-0.08809891808346221</v>
+        <v>-0.03557136505113387</v>
       </c>
       <c r="D70">
-        <v>0.97</v>
+        <v>1.24</v>
       </c>
       <c r="E70">
-        <v>0.87</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2325,16 +2274,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.00885558583106264</v>
+        <v>-0.01404369148461875</v>
       </c>
       <c r="C71">
-        <v>-0.06896551724137916</v>
+        <v>-0.04079430174832716</v>
       </c>
       <c r="D71">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="E71">
-        <v>0.85</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2342,16 +2291,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>-0.0008221430528912341</v>
+        <v>-0.002967359050445104</v>
       </c>
       <c r="C72">
-        <v>-0.06020671834625337</v>
+        <v>-0.01762114537444934</v>
       </c>
       <c r="D72">
-        <v>0.99</v>
+        <v>2.79</v>
       </c>
       <c r="E72">
-        <v>0.89</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2359,16 +2308,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.01378446115288213</v>
+        <v>-0.0004199916001680669</v>
       </c>
       <c r="C73">
-        <v>-0.07549361207897788</v>
+        <v>-0.02480876576390327</v>
       </c>
       <c r="D73">
-        <v>1.37</v>
+        <v>0.97</v>
       </c>
       <c r="E73">
-        <v>1.29</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2376,16 +2325,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>-0.01291512915129152</v>
+        <v>-0.01851599727705923</v>
       </c>
       <c r="C74">
-        <v>-0.08898305084745761</v>
+        <v>-0.02881040892193308</v>
       </c>
       <c r="D74">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="E74">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2393,16 +2342,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>-0.01878868258178605</v>
+        <v>0.05507745266781414</v>
       </c>
       <c r="C75">
-        <v>-0.07925835370823144</v>
+        <v>-0.07188498402555916</v>
       </c>
       <c r="D75">
-        <v>1.28</v>
+        <v>0.92</v>
       </c>
       <c r="E75">
-        <v>1.98</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2410,16 +2359,16 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.005988023952095809</v>
+        <v>-0.006939854593522772</v>
       </c>
       <c r="C76">
-        <v>-0.03746397694524495</v>
+        <v>0.01882352941176469</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="E76">
-        <v>0.91</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2427,16 +2376,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.009778357235984362</v>
+        <v>0.01357082273112811</v>
       </c>
       <c r="C77">
-        <v>-0.07873303167420817</v>
+        <v>-0.002122241086587497</v>
       </c>
       <c r="D77">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="E77">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2444,16 +2393,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>-0.01480854664692195</v>
+        <v>-0.006401617250673898</v>
       </c>
       <c r="C78">
-        <v>-0.07276302851524087</v>
+        <v>0.03568929321203634</v>
       </c>
       <c r="D78">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="E78">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2461,16 +2410,16 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.01120331950207469</v>
+        <v>0.008373205741626802</v>
       </c>
       <c r="C79">
-        <v>-0.08163006220642377</v>
+        <v>-0.009523809523809533</v>
       </c>
       <c r="D79">
-        <v>0.74</v>
+        <v>1.17</v>
       </c>
       <c r="E79">
-        <v>0.6</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2478,16 +2427,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>-0.01358234295415963</v>
+        <v>0.007611241217798624</v>
       </c>
       <c r="C80">
-        <v>-0.1279761904761904</v>
+        <v>-0.02256074045507122</v>
       </c>
       <c r="D80">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
       <c r="E80">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2495,16 +2444,16 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.01129750085587117</v>
+        <v>-0.004251442453689514</v>
       </c>
       <c r="C81">
-        <v>-0.06491845219059797</v>
+        <v>0.03816300129366117</v>
       </c>
       <c r="D81">
-        <v>1.92</v>
+        <v>0.76</v>
       </c>
       <c r="E81">
-        <v>1.89</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2512,16 +2461,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.008532423208191224</v>
+        <v>0.02428091146806124</v>
       </c>
       <c r="C82">
-        <v>-0.02939958592132514</v>
+        <v>-0.0185082361650934</v>
       </c>
       <c r="D82">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="E82">
-        <v>1.27</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2529,16 +2478,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.02234234234234244</v>
+        <v>0.05167273931765481</v>
       </c>
       <c r="C83">
-        <v>-0.09290709290709287</v>
+        <v>-0.06244116724192029</v>
       </c>
       <c r="D83">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="E83">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2546,16 +2495,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.002403846153846156</v>
+        <v>-0.001964636542239686</v>
       </c>
       <c r="C84">
-        <v>-0.05975197294250287</v>
+        <v>0.0009847365829640572</v>
       </c>
       <c r="D84">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="E84">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2563,16 +2512,16 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>-0.005118110236220564</v>
+        <v>0.01447661469933186</v>
       </c>
       <c r="C85">
-        <v>-0.07140228192859761</v>
+        <v>-0.03771551724137934</v>
       </c>
       <c r="D85">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="E85">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2580,16 +2529,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.05654482974070604</v>
+        <v>-0.02427936770327513</v>
       </c>
       <c r="C86">
-        <v>-0.05106001791579561</v>
+        <v>0.05972086984745218</v>
       </c>
       <c r="D86">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E86">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2597,16 +2546,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>-0.0102439932948407</v>
+        <v>0.03300970873786413</v>
       </c>
       <c r="C87">
-        <v>-0.04776278409090896</v>
+        <v>-0.03521393411586519</v>
       </c>
       <c r="D87">
-        <v>0.89</v>
+        <v>1.46</v>
       </c>
       <c r="E87">
-        <v>0.86</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2614,16 +2563,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>-0.00230794592812399</v>
+        <v>0.01857749469214445</v>
       </c>
       <c r="C88">
-        <v>-0.1336405529953917</v>
+        <v>-0.02070230607966455</v>
       </c>
       <c r="D88">
-        <v>0.97</v>
+        <v>1.15</v>
       </c>
       <c r="E88">
-        <v>0.8100000000000001</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2631,16 +2580,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.005923000987166831</v>
+        <v>0.01246882793017448</v>
       </c>
       <c r="C89">
-        <v>0.005459057071960298</v>
+        <v>-0.02768729641693814</v>
       </c>
       <c r="D89">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2648,16 +2597,16 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>-0.01216814159292036</v>
+        <v>-0.06286905175408129</v>
       </c>
       <c r="C90">
-        <v>-0.08678102926337029</v>
+        <v>-0.04478126076472611</v>
       </c>
       <c r="D90">
-        <v>0.8100000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="E90">
-        <v>0.76</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2665,16 +2614,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.06891624532864371</v>
+        <v>0.02347636815920398</v>
       </c>
       <c r="C91">
-        <v>-0.0950347567030785</v>
+        <v>-0.04130989935406335</v>
       </c>
       <c r="D91">
-        <v>0.4</v>
+        <v>1.16</v>
       </c>
       <c r="E91">
-        <v>0.36</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2682,13 +2631,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.004676539360872992</v>
+        <v>0.03799654576856645</v>
       </c>
       <c r="C92">
-        <v>-0.06896551724137939</v>
+        <v>-0.01877133105802053</v>
       </c>
       <c r="D92">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="E92">
         <v>1.47</v>
@@ -2699,13 +2648,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.01254671649759741</v>
+        <v>0.01883012820512827</v>
       </c>
       <c r="C93">
-        <v>-0.04451793436784533</v>
+        <v>-0.02220475535468666</v>
       </c>
       <c r="D93">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="E93">
         <v>1.25</v>
@@ -2716,16 +2665,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>-0.01159900579950291</v>
+        <v>0.0136540962288686</v>
       </c>
       <c r="C94">
-        <v>-0.05312500000000005</v>
+        <v>-0.02428115015974446</v>
       </c>
       <c r="D94">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="E94">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2733,16 +2682,16 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.02569832402234635</v>
+        <v>0.03722084367245643</v>
       </c>
       <c r="C95">
-        <v>-0.0946502057613168</v>
+        <v>-0.03623188405797105</v>
       </c>
       <c r="D95">
-        <v>1.12</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E95">
-        <v>0.87</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2750,16 +2699,16 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>-0.009967294813891856</v>
+        <v>-0.09586436380922199</v>
       </c>
       <c r="C96">
-        <v>-0.1006871406534848</v>
+        <v>0.1417437012869314</v>
       </c>
       <c r="D96">
-        <v>1.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E96">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2767,16 +2716,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>-0.001748251748251711</v>
+        <v>0.01185344827586211</v>
       </c>
       <c r="C97">
-        <v>-0.06829268292682926</v>
+        <v>0.002185792349726838</v>
       </c>
       <c r="D97">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="E97">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2784,16 +2733,16 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>-0.003824476650563633</v>
+        <v>0.09014675052410914</v>
       </c>
       <c r="C98">
-        <v>-0.05606233371341694</v>
+        <v>-0.05588822355289409</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="E98">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2801,16 +2750,16 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>-0.008430609597924825</v>
+        <v>0.02970297029702959</v>
       </c>
       <c r="C99">
-        <v>-0.06215722120658133</v>
+        <v>-0.02972195589645259</v>
       </c>
       <c r="D99">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="E99">
-        <v>0.97</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2818,16 +2767,16 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.007566204287515805</v>
+        <v>0.01393188854489173</v>
       </c>
       <c r="C100">
-        <v>-0.1082299887260428</v>
+        <v>-0.02887537993920971</v>
       </c>
       <c r="D100">
-        <v>0.93</v>
+        <v>1.67</v>
       </c>
       <c r="E100">
-        <v>0.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2835,16 +2784,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.1194383834550801</v>
+        <v>0.01595092024539879</v>
       </c>
       <c r="C101">
-        <v>-0.1303797468354431</v>
+        <v>-0.02774427020506624</v>
       </c>
       <c r="D101">
-        <v>0.5600000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="E101">
-        <v>0.5</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2852,16 +2801,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.00876232201533401</v>
+        <v>0.0290329622353198</v>
       </c>
       <c r="C102">
-        <v>-0.05246913580246907</v>
+        <v>-0.04755892255892256</v>
       </c>
       <c r="D102">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="E102">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2869,16 +2818,16 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.05591397849462361</v>
+        <v>0.0268716992854924</v>
       </c>
       <c r="C103">
-        <v>-0.1214953271028036</v>
+        <v>-0.0609864146485529</v>
       </c>
       <c r="D103">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2886,16 +2835,16 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.02087475149105373</v>
+        <v>0.03308207705192626</v>
       </c>
       <c r="C104">
-        <v>-0.09304426377597112</v>
+        <v>-0.03182374541003672</v>
       </c>
       <c r="D104">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="E104">
-        <v>1.85</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2903,16 +2852,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>-0.00465116279069763</v>
+        <v>0.00808625336927214</v>
       </c>
       <c r="C105">
-        <v>-0.05822416302765648</v>
+        <v>0.03333333333333342</v>
       </c>
       <c r="D105">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="E105">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2920,16 +2869,16 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>-0.01704199634814365</v>
+        <v>0.01300578034682079</v>
       </c>
       <c r="C106">
-        <v>-0.05181347150259072</v>
+        <v>-0.007246376811594305</v>
       </c>
       <c r="D106">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="E106">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2937,16 +2886,16 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>-0.0004410143329657728</v>
+        <v>0.02028005794302261</v>
       </c>
       <c r="C107">
-        <v>-0.1039554760484993</v>
+        <v>-0.09574000878348703</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="E107">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2954,16 +2903,16 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>-0.05583070688878881</v>
+        <v>0.03570057581573897</v>
       </c>
       <c r="C108">
-        <v>-0.09144502330682751</v>
+        <v>0.01557878130546242</v>
       </c>
       <c r="D108">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="E108">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2971,16 +2920,16 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.005894736842105315</v>
+        <v>0.01278054862842895</v>
       </c>
       <c r="C109">
-        <v>-0.09706889988580128</v>
+        <v>-0.02458512599877081</v>
       </c>
       <c r="D109">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="E109">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2988,16 +2937,16 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.04532577903682719</v>
+        <v>0.03487358326068007</v>
       </c>
       <c r="C110">
-        <v>-0.1183879093198991</v>
+        <v>-0.04399323181049066</v>
       </c>
       <c r="D110">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="E110">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3005,16 +2954,16 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.0146842878120412</v>
+        <v>0.01004155124653737</v>
       </c>
       <c r="C111">
-        <v>-0.06318681318681318</v>
+        <v>-0.02129120879120873</v>
       </c>
       <c r="D111">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="E111">
-        <v>0.9399999999999999</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3022,16 +2971,16 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>-0.03056872037914682</v>
+        <v>0.006060606060606111</v>
       </c>
       <c r="C112">
-        <v>-0.1633545310015898</v>
+        <v>-0.05222437137330746</v>
       </c>
       <c r="D112">
-        <v>0.86</v>
+        <v>1.52</v>
       </c>
       <c r="E112">
-        <v>0.7</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3039,16 +2988,16 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.04598160735705711</v>
+        <v>0.01435406698564595</v>
       </c>
       <c r="C113">
-        <v>-0.09658273381294964</v>
+        <v>-0.009546539379474949</v>
       </c>
       <c r="D113">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="E113">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3056,16 +3005,16 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>-0.00564440263405455</v>
+        <v>0.02454545454545445</v>
       </c>
       <c r="C114">
-        <v>-0.07247223845704276</v>
+        <v>-0.03757736516357206</v>
       </c>
       <c r="D114">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="E114">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3073,16 +3022,16 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>-0.02303754266211599</v>
+        <v>0.2663396106978954</v>
       </c>
       <c r="C115">
-        <v>-0.0768621236133122</v>
+        <v>-0.08007143920226227</v>
       </c>
       <c r="D115">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="E115">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3090,16 +3039,16 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.01918976545842211</v>
+        <v>-0.001072577761887777</v>
       </c>
       <c r="C116">
-        <v>-0.06589018302828617</v>
+        <v>-0.001089720305121727</v>
       </c>
       <c r="D116">
-        <v>1.37</v>
+        <v>0.77</v>
       </c>
       <c r="E116">
-        <v>1.38</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3107,16 +3056,16 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>-0.004024144869215206</v>
+        <v>-0.0003516174402249965</v>
       </c>
       <c r="C117">
-        <v>-0.05882352941176464</v>
+        <v>0.01662971175166295</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E117">
-        <v>0.95</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3124,16 +3073,16 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.01474201474201476</v>
+        <v>0.03913894324853232</v>
       </c>
       <c r="C118">
-        <v>-0.0961968680089485</v>
+        <v>-0.01550387596899226</v>
       </c>
       <c r="D118">
-        <v>0.83</v>
+        <v>1.12</v>
       </c>
       <c r="E118">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3141,16 +3090,16 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.01617375231053599</v>
+        <v>0.1066176470588234</v>
       </c>
       <c r="C119">
-        <v>-0.106198347107438</v>
+        <v>-0.2048122065727699</v>
       </c>
       <c r="D119">
-        <v>1.26</v>
+        <v>1.96</v>
       </c>
       <c r="E119">
-        <v>1.17</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3158,16 +3107,16 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.01374680306905361</v>
+        <v>0.03921568627450971</v>
       </c>
       <c r="C120">
-        <v>-0.2015282994430773</v>
+        <v>-0.03999999999999998</v>
       </c>
       <c r="D120">
+        <v>1.03</v>
+      </c>
+      <c r="E120">
         <v>0.96</v>
-      </c>
-      <c r="E120">
-        <v>1.01</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3175,16 +3124,16 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.02982326951399115</v>
+        <v>0.01829268292682932</v>
       </c>
       <c r="C121">
-        <v>-0.05853658536585371</v>
+        <v>-0.003039513677811558</v>
       </c>
       <c r="D121">
-        <v>0.77</v>
+        <v>1.56</v>
       </c>
       <c r="E121">
-        <v>0.9</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3192,16 +3141,16 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.0195571955719557</v>
+        <v>0.03189544872966545</v>
       </c>
       <c r="C122">
-        <v>-0.01089324618736376</v>
+        <v>-0.02258209626630671</v>
       </c>
       <c r="D122">
-        <v>0.23</v>
+        <v>1.3</v>
       </c>
       <c r="E122">
-        <v>0.23</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3209,16 +3158,16 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.005893909626719062</v>
+        <v>0.02660217654171708</v>
       </c>
       <c r="C123">
-        <v>-0.07818181818181824</v>
+        <v>-0.0454545454545455</v>
       </c>
       <c r="D123">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="E123">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3226,16 +3175,16 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>-0.04452296819787986</v>
+        <v>0.01248439450686643</v>
       </c>
       <c r="C124">
-        <v>-0.002682763246143605</v>
+        <v>-0.06076430097317828</v>
       </c>
       <c r="D124">
-        <v>1.49</v>
+        <v>1.13</v>
       </c>
       <c r="E124">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3243,16 +3192,16 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>-0.03789473684210533</v>
+        <v>0.01983471074380165</v>
       </c>
       <c r="C125">
-        <v>-0.09393346379647748</v>
+        <v>-0.02843216896831846</v>
       </c>
       <c r="D125">
-        <v>1.06</v>
+        <v>1.64</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3260,16 +3209,16 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.06188925081433228</v>
+        <v>0.02113048071843636</v>
       </c>
       <c r="C126">
-        <v>-0.1424581005586592</v>
+        <v>-0.03536647872885709</v>
       </c>
       <c r="D126">
-        <v>1.14</v>
+        <v>1.87</v>
       </c>
       <c r="E126">
-        <v>0.93</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3277,16 +3226,16 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>-0.008050498582014381</v>
+        <v>-0.02096719648292182</v>
       </c>
       <c r="C127">
-        <v>-0.03081405615398212</v>
+        <v>-0.01580894719138907</v>
       </c>
       <c r="D127">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="E127">
-        <v>1.58</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3294,16 +3243,16 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.0122850122850123</v>
+        <v>0.001463593121112332</v>
       </c>
       <c r="C128">
-        <v>-0.1092896174863389</v>
+        <v>-0.03288062902072912</v>
       </c>
       <c r="D128">
-        <v>0.9399999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="E128">
-        <v>0.85</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3311,16 +3260,16 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.002001000500250183</v>
+        <v>0.04430153626295098</v>
       </c>
       <c r="C129">
-        <v>-0.07454714352066875</v>
+        <v>-0.01521585279547062</v>
       </c>
       <c r="D129">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="E129">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3328,16 +3277,16 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>-0.01963993453355155</v>
+        <v>0.03470715835140989</v>
       </c>
       <c r="C130">
-        <v>-0.09602400600150042</v>
+        <v>-0.017139796464917</v>
       </c>
       <c r="D130">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="E130">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3345,16 +3294,16 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.01949106659447755</v>
+        <v>0.01283018867924538</v>
       </c>
       <c r="C131">
-        <v>-0.09135559921414535</v>
+        <v>-0.03882783882783878</v>
       </c>
       <c r="D131">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>1.14</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3362,16 +3311,16 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.01197809719370284</v>
+        <v>0.01124593074874218</v>
       </c>
       <c r="C132">
-        <v>-0.06924058710912574</v>
+        <v>-0.05959329693089813</v>
       </c>
       <c r="D132">
-        <v>0.8100000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E132">
-        <v>0.6</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3379,16 +3328,16 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>-0.01711580480699204</v>
+        <v>0.07101036136763239</v>
       </c>
       <c r="C133">
-        <v>-0.06085470085470084</v>
+        <v>-0.02576635592508612</v>
       </c>
       <c r="D133">
-        <v>1.77</v>
+        <v>1.25</v>
       </c>
       <c r="E133">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3396,16 +3345,16 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.0172786177105832</v>
+        <v>-0.03312191684284715</v>
       </c>
       <c r="C134">
-        <v>-0.07797400866377868</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
       <c r="E134">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3413,16 +3362,16 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.0082735797021512</v>
+        <v>0.0395042602633619</v>
       </c>
       <c r="C135">
-        <v>-0.08062880324543613</v>
+        <v>-0.0594614809274496</v>
       </c>
       <c r="D135">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="E135">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3430,16 +3379,16 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.008474576271186363</v>
+        <v>0.04030226700251905</v>
       </c>
       <c r="C136">
-        <v>-0.1061026352288488</v>
+        <v>-0.04056865464632451</v>
       </c>
       <c r="D136">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="E136">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3447,16 +3396,16 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>-0.006994404476418753</v>
+        <v>0.02307692307692303</v>
       </c>
       <c r="C137">
-        <v>-0.1077128845296477</v>
+        <v>-0.0373599003735991</v>
       </c>
       <c r="D137">
-        <v>1.09</v>
+        <v>1.51</v>
       </c>
       <c r="E137">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3464,16 +3413,16 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.0280569804519618</v>
+        <v>0.0238726790450928</v>
       </c>
       <c r="C138">
-        <v>-0.1354408754405677</v>
+        <v>-0.03598971722365042</v>
       </c>
       <c r="D138">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="E138">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3481,16 +3430,16 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.01671511627906974</v>
+        <v>0.02295081967213117</v>
       </c>
       <c r="C139">
-        <v>-0.1032679738562092</v>
+        <v>-0.03262955854126676</v>
       </c>
       <c r="D139">
-        <v>1.93</v>
+        <v>1.06</v>
       </c>
       <c r="E139">
-        <v>2.3</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3498,16 +3447,16 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.02833200319233837</v>
+        <v>-0.007426226304475328</v>
       </c>
       <c r="C140">
-        <v>-0.140302613480055</v>
+        <v>-0.01924927815206932</v>
       </c>
       <c r="D140">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="E140">
-        <v>1.04</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3515,16 +3464,16 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.045137614678899</v>
+        <v>0.0008873114463177753</v>
       </c>
       <c r="C141">
-        <v>-0.1193163495646565</v>
+        <v>-0.02449693788276449</v>
       </c>
       <c r="D141">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="E141">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3532,16 +3481,16 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.006422607578676904</v>
+        <v>0.02362204724409445</v>
       </c>
       <c r="C142">
-        <v>-0.09731934731934738</v>
+        <v>-0.01567749160134364</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="E142">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3549,16 +3498,16 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>-0.005235602094240842</v>
+        <v>0.02996965098634284</v>
       </c>
       <c r="C143">
-        <v>-0.04761904761904771</v>
+        <v>-0.04710607997078693</v>
       </c>
       <c r="D143">
-        <v>0.85</v>
+        <v>1.4</v>
       </c>
       <c r="E143">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3566,16 +3515,16 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.008637873754152795</v>
+        <v>0.06554878048780498</v>
       </c>
       <c r="C144">
-        <v>-0.09234507897934381</v>
+        <v>-0.04698972099853149</v>
       </c>
       <c r="D144">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E144">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3583,16 +3532,16 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>-0.01839890389508725</v>
+        <v>0.04133298889175916</v>
       </c>
       <c r="C145">
-        <v>-0.07637145930441014</v>
+        <v>-0.02438404876809745</v>
       </c>
       <c r="D145">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="E145">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3600,16 +3549,16 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.004934948407357436</v>
+        <v>0.03149606299212601</v>
       </c>
       <c r="C146">
-        <v>-0.07743271221532096</v>
+        <v>-0.06333830104321912</v>
       </c>
       <c r="D146">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="E146">
-        <v>1.44</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3617,16 +3566,16 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.004484304932735573</v>
+        <v>0.005822416302765491</v>
       </c>
       <c r="C147">
-        <v>-0.05246252676659533</v>
+        <v>-0.08927381745502992</v>
       </c>
       <c r="D147">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.93</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3634,16 +3583,16 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>-0.01200525229788033</v>
+        <v>0.006053935057787629</v>
       </c>
       <c r="C148">
-        <v>-0.03535991340429365</v>
+        <v>-0.01103143960286818</v>
       </c>
       <c r="D148">
-        <v>0.9399999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="E148">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3651,16 +3600,16 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>-0.003030303030302966</v>
+        <v>0.02152152152152151</v>
       </c>
       <c r="C149">
-        <v>-0.09128630705394192</v>
+        <v>-0.0797403801576263</v>
       </c>
       <c r="D149">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="E149">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3668,16 +3617,16 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.001561686621551219</v>
+        <v>0.02180046165683508</v>
       </c>
       <c r="C150">
-        <v>-0.09992946155654837</v>
+        <v>-0.0493857493857494</v>
       </c>
       <c r="D150">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="E150">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3685,16 +3634,16 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.002384737678855284</v>
+        <v>0.03356056633455683</v>
       </c>
       <c r="C151">
-        <v>-0.1357684355616816</v>
+        <v>-0.04838709677419354</v>
       </c>
       <c r="D151">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="E151">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3702,16 +3651,16 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>-0.06001395673412427</v>
+        <v>0.005007009813739239</v>
       </c>
       <c r="C152">
-        <v>-0.1092384519350812</v>
+        <v>-0.0049820645675568</v>
       </c>
       <c r="D152">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="E152">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3719,16 +3668,16 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.02779353374929107</v>
+        <v>0.006660323501427239</v>
       </c>
       <c r="C153">
-        <v>-0.06170212765957441</v>
+        <v>-0.02259887005649723</v>
       </c>
       <c r="D153">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="E153">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3736,16 +3685,16 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>-0.03929084810733103</v>
+        <v>0.02322580645161292</v>
       </c>
       <c r="C154">
-        <v>-0.05459508644222012</v>
+        <v>-0.02157360406091373</v>
       </c>
       <c r="D154">
-        <v>0.7</v>
+        <v>1.35</v>
       </c>
       <c r="E154">
-        <v>0.52</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3753,16 +3702,16 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.00250836120401345</v>
+        <v>0.03254437869822497</v>
       </c>
       <c r="C155">
-        <v>-0.1150971599402092</v>
+        <v>-0.05617977528089892</v>
       </c>
       <c r="D155">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="E155">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3770,16 +3719,16 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>-0.007401735579377324</v>
+        <v>0.05282331511839693</v>
       </c>
       <c r="C156">
-        <v>-0.06218487394957981</v>
+        <v>-0.01449275362318842</v>
       </c>
       <c r="D156">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E156">
-        <v>1.39</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3787,16 +3736,16 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>-0.01823866597186022</v>
+        <v>-0.003033367037411614</v>
       </c>
       <c r="C157">
-        <v>-0.09753787878787883</v>
+        <v>-0.04188991719434972</v>
       </c>
       <c r="D157">
-        <v>0.97</v>
+        <v>1.11</v>
       </c>
       <c r="E157">
-        <v>0.95</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3804,16 +3753,16 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.004659643435980572</v>
+        <v>0.007042253521126767</v>
       </c>
       <c r="C158">
-        <v>-0.08804914370811613</v>
+        <v>-0.02083333333333335</v>
       </c>
       <c r="D158">
-        <v>0.98</v>
+        <v>1.31</v>
       </c>
       <c r="E158">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3821,16 +3770,16 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>-0.0168855534709193</v>
+        <v>0.02319109461966596</v>
       </c>
       <c r="C159">
-        <v>-0.02383134738771764</v>
+        <v>-0.03409090909090917</v>
       </c>
       <c r="D159">
-        <v>0.92</v>
+        <v>1.23</v>
       </c>
       <c r="E159">
-        <v>0.78</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3838,16 +3787,16 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.006501950585175558</v>
+        <v>0.07044198895027624</v>
       </c>
       <c r="C160">
-        <v>-0.08233890214797131</v>
+        <v>-0.05152120808349995</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="E160">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3855,16 +3804,16 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>-0.002941176470588319</v>
+        <v>0.06439024390243911</v>
       </c>
       <c r="C161">
-        <v>-0.09866666666666672</v>
+        <v>0.02986577181208049</v>
       </c>
       <c r="D161">
-        <v>1.31</v>
+        <v>0.51</v>
       </c>
       <c r="E161">
-        <v>1.63</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3872,16 +3821,16 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.0128913443830571</v>
+        <v>0.09857192615813302</v>
       </c>
       <c r="C162">
-        <v>-0.07191780821917797</v>
+        <v>-0.03274215552523872</v>
       </c>
       <c r="D162">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E162">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3889,16 +3838,16 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>-0.01352705410821647</v>
+        <v>0.008747949699289177</v>
       </c>
       <c r="C163">
-        <v>-0.08520384791571235</v>
+        <v>-0.03150026695141478</v>
       </c>
       <c r="D163">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="E163">
-        <v>1.66</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3906,16 +3855,16 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>-0.001610305958132068</v>
+        <v>-0.007952286282306115</v>
       </c>
       <c r="C164">
-        <v>-0.09104258443465486</v>
+        <v>-0.01375245579567778</v>
       </c>
       <c r="D164">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="E164">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3923,13 +3872,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>-0.00470588235294118</v>
+        <v>0.02147058823529404</v>
       </c>
       <c r="C165">
-        <v>-0.05777777777777783</v>
+        <v>-0.01650738488271064</v>
       </c>
       <c r="D165">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E165">
         <v>1.4</v>
@@ -3940,16 +3889,16 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.0620663068619892</v>
+        <v>0.01373626373626375</v>
       </c>
       <c r="C166">
-        <v>-0.04974207811348572</v>
+        <v>-0.0397877984084881</v>
       </c>
       <c r="D166">
-        <v>0.48</v>
+        <v>1.16</v>
       </c>
       <c r="E166">
-        <v>0.33</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3957,16 +3906,16 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>-0.005166744950681128</v>
+        <v>-0.02746615087040626</v>
       </c>
       <c r="C167">
-        <v>-0.09647258818529549</v>
+        <v>-0.1432441584828988</v>
       </c>
       <c r="D167">
-        <v>0.97</v>
+        <v>1.3</v>
       </c>
       <c r="E167">
-        <v>1.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3974,16 +3923,16 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>-0.02440147329650089</v>
+        <v>0.04940692089010884</v>
       </c>
       <c r="C168">
-        <v>-0.1777947348340329</v>
+        <v>-0.09613338063142961</v>
       </c>
       <c r="D168">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="E168">
-        <v>2.51</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3991,16 +3940,16 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.09714484679665754</v>
+        <v>-0.001624563398586631</v>
       </c>
       <c r="C169">
-        <v>-0.1030056355666877</v>
+        <v>-0.04713435640463499</v>
       </c>
       <c r="D169">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="E169">
-        <v>1.09</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4008,16 +3957,16 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>-0.007396970764353589</v>
+        <v>0.02240000000000005</v>
       </c>
       <c r="C170">
-        <v>-0.1153725243634077</v>
+        <v>-0.04856850715746425</v>
       </c>
       <c r="D170">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="E170">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4025,16 +3974,16 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.003891050583657622</v>
+        <v>0.0572327044025157</v>
       </c>
       <c r="C171">
-        <v>-0.1018886679920477</v>
+        <v>-0.02105263157894745</v>
       </c>
       <c r="D171">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="E171">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4042,16 +3991,16 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.01028806584362141</v>
+        <v>0.01807228915662648</v>
       </c>
       <c r="C172">
-        <v>-0.1213768115942029</v>
+        <v>-0.0348837209302325</v>
       </c>
       <c r="D172">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="E172">
-        <v>1.39</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4059,16 +4008,16 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.03157581173666964</v>
+        <v>0.008988279283813915</v>
       </c>
       <c r="C173">
-        <v>-0.1086898750996547</v>
+        <v>-0.05785914338411097</v>
       </c>
       <c r="D173">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="E173">
-        <v>1.34</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4076,16 +4025,16 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>-0.03763440860215057</v>
+        <v>0.06410256410256404</v>
       </c>
       <c r="C174">
-        <v>-0.09336609336609332</v>
+        <v>-0.1089494163424124</v>
       </c>
       <c r="D174">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="E174">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4093,16 +4042,16 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>-0.06470806991446632</v>
+        <v>-0.07954545454545457</v>
       </c>
       <c r="C175">
-        <v>-0.01545650611071177</v>
+        <v>-0.008116883116883088</v>
       </c>
       <c r="D175">
-        <v>1.46</v>
+        <v>0.84</v>
       </c>
       <c r="E175">
-        <v>2.22</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4110,16 +4059,16 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>-0.1361031518624642</v>
+        <v>0.02121504339440701</v>
       </c>
       <c r="C176">
-        <v>0.1829668689682619</v>
+        <v>-0.008628954937679756</v>
       </c>
       <c r="D176">
-        <v>0.9399999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="E176">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4127,16 +4076,16 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>-0.001958863858961722</v>
+        <v>0.02382794367940595</v>
       </c>
       <c r="C177">
-        <v>-0.07601809954751135</v>
+        <v>-0.01336200276455237</v>
       </c>
       <c r="D177">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="E177">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4144,16 +4093,16 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>-0.02284519165024332</v>
+        <v>0.01190476190476204</v>
       </c>
       <c r="C178">
-        <v>-0.08463719029562264</v>
+        <v>-0.03121387283236987</v>
       </c>
       <c r="D178">
-        <v>0.55</v>
+        <v>1.33</v>
       </c>
       <c r="E178">
-        <v>0.57</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4161,16 +4110,16 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.01953336950623993</v>
+        <v>-0.004904405652535341</v>
       </c>
       <c r="C179">
-        <v>-0.1429915333960489</v>
+        <v>-0.05189939012237426</v>
       </c>
       <c r="D179">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="E179">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4178,16 +4127,16 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.01012017710309942</v>
+        <v>-0.1144018583042973</v>
       </c>
       <c r="C180">
-        <v>-0.09845449341728674</v>
+        <v>-0.06804572672836152</v>
       </c>
       <c r="D180">
-        <v>0.8</v>
+        <v>1.16</v>
       </c>
       <c r="E180">
-        <v>0.57</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4195,16 +4144,16 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>-0.2054133138258961</v>
       </c>
       <c r="C181">
-        <v>-0.088560885608856</v>
+        <v>-0.0440067057837385</v>
       </c>
       <c r="D181">
-        <v>1.7</v>
+        <v>0.78</v>
       </c>
       <c r="E181">
-        <v>3.45</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4212,16 +4161,16 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>-0.02071833106315868</v>
+        <v>0.02884615384615392</v>
       </c>
       <c r="C182">
-        <v>-0.1000259470679812</v>
+        <v>-0.01602564102564107</v>
       </c>
       <c r="D182">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="E182">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4229,16 +4178,16 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>-0.02286902286902289</v>
+        <v>0.05987334484743803</v>
       </c>
       <c r="C183">
-        <v>-0.1537102473498233</v>
+        <v>-0.08140161725067387</v>
       </c>
       <c r="D183">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="E183">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4246,16 +4195,16 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>-0.04530744336569569</v>
+        <v>-0.009276879162702117</v>
       </c>
       <c r="C184">
-        <v>-0.05069124423963135</v>
+        <v>-0.03966789667896693</v>
       </c>
       <c r="D184">
-        <v>0.55</v>
+        <v>1.06</v>
       </c>
       <c r="E184">
-        <v>0.49</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4263,16 +4212,16 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>-0.008662175168431169</v>
+        <v>0.02539682539682546</v>
       </c>
       <c r="C185">
-        <v>-0.06272727272727269</v>
+        <v>0.06012526096033413</v>
       </c>
       <c r="D185">
-        <v>1.12</v>
+        <v>0.53</v>
       </c>
       <c r="E185">
-        <v>1.01</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4280,16 +4229,16 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>-0.002944366961103327</v>
+        <v>0.02182539682539685</v>
       </c>
       <c r="C186">
-        <v>-0.06154970760233929</v>
+        <v>-0.009842519685039379</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="E186">
-        <v>0.99</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4297,16 +4246,16 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>-0.004744958481613298</v>
+        <v>-0.003336234406730445</v>
       </c>
       <c r="C187">
-        <v>-0.08287895310796059</v>
+        <v>-0.005064390102734663</v>
       </c>
       <c r="D187">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="E187">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4314,16 +4263,16 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>-0.01944901315789469</v>
+        <v>0.01165181631254277</v>
       </c>
       <c r="C188">
-        <v>-0.07916793660469378</v>
+        <v>-0.04901960784313723</v>
       </c>
       <c r="D188">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="E188">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4331,16 +4280,16 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>-0.03229461756373928</v>
+        <v>0.02611111111111121</v>
       </c>
       <c r="C189">
-        <v>-0.03427638737758433</v>
+        <v>-0.02352297592997811</v>
       </c>
       <c r="D189">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="E189">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4348,16 +4297,16 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.02636590010253412</v>
+        <v>0.00704816244336297</v>
       </c>
       <c r="C190">
-        <v>-0.02171444791370996</v>
+        <v>-0.02873563218390794</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="E190">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4365,16 +4314,16 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.01298701298701302</v>
+        <v>0.05507847201658278</v>
       </c>
       <c r="C191">
-        <v>-0.06116207951070339</v>
+        <v>0.006948640483383591</v>
       </c>
       <c r="D191">
-        <v>1.62</v>
+        <v>1.11</v>
       </c>
       <c r="E191">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4382,16 +4331,16 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>-0.01623376623376632</v>
+        <v>0.03123662815575531</v>
       </c>
       <c r="C192">
-        <v>-0.02539682539682542</v>
+        <v>-0.0652614511552493</v>
       </c>
       <c r="D192">
-        <v>1.62</v>
+        <v>1.13</v>
       </c>
       <c r="E192">
-        <v>1.84</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4399,16 +4348,16 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>-0.06024744486282941</v>
+        <v>0.0298701298701299</v>
       </c>
       <c r="C193">
-        <v>-0.1217677480018804</v>
+        <v>-0.05735660847880304</v>
       </c>
       <c r="D193">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="E193">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4416,16 +4365,16 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.000477783086478686</v>
+        <v>0.02042205582028593</v>
       </c>
       <c r="C194">
-        <v>-0.06929590017825329</v>
+        <v>-0.0275747508305647</v>
       </c>
       <c r="D194">
-        <v>0.6899999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="E194">
-        <v>0.66</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4433,16 +4382,16 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.0887888707037643</v>
+        <v>0.00642398286937905</v>
       </c>
       <c r="C195">
-        <v>-0.05770720371804802</v>
+        <v>-0.02422965499078216</v>
       </c>
       <c r="D195">
-        <v>0.47</v>
+        <v>1.26</v>
       </c>
       <c r="E195">
-        <v>0.43</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4450,16 +4399,16 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="C196">
-        <v>-0.08000000000000007</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="D196">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="E196">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4467,16 +4416,16 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>-0.0233918128654971</v>
+        <v>0.01762820512820519</v>
       </c>
       <c r="C197">
-        <v>-0.050185873605948</v>
+        <v>-0.0562310030395136</v>
       </c>
       <c r="D197">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="E197">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4484,16 +4433,16 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>-0.01115187087307417</v>
+        <v>0.05263157894736831</v>
       </c>
       <c r="C198">
-        <v>-0.08560258829873278</v>
+        <v>-0.1229735073151444</v>
       </c>
       <c r="D198">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="E198">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4501,16 +4450,16 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>-0.02318229715489983</v>
+        <v>0.01660700907350363</v>
       </c>
       <c r="C199">
-        <v>-0.08695652173913038</v>
+        <v>-0.03186572610070552</v>
       </c>
       <c r="D199">
-        <v>1.43</v>
+        <v>0.83</v>
       </c>
       <c r="E199">
-        <v>1.39</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4518,16 +4467,16 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>-0.03101820633850306</v>
+        <v>0.007817811012916301</v>
       </c>
       <c r="C200">
-        <v>-0.1168753726893261</v>
+        <v>-0.01186038630972562</v>
       </c>
       <c r="D200">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4535,16 +4484,16 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>-0.001121076233184005</v>
+        <v>0.04305283757338553</v>
       </c>
       <c r="C201">
-        <v>-0.08805355303810504</v>
+        <v>-0.04331450094161965</v>
       </c>
       <c r="D201">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="E201">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4552,16 +4501,16 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.0003357958361316402</v>
+        <v>0.07214895267649343</v>
       </c>
       <c r="C202">
-        <v>-0.08458559256390399</v>
+        <v>-0.05092936802973973</v>
       </c>
       <c r="D202">
-        <v>1.03</v>
+        <v>0.76</v>
       </c>
       <c r="E202">
-        <v>1.03</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4569,16 +4518,16 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.0403882279273637</v>
+        <v>0.01824817518248177</v>
       </c>
       <c r="C203">
-        <v>-0.1363004172461752</v>
+        <v>-0.01925391095066187</v>
       </c>
       <c r="D203">
-        <v>0.99</v>
+        <v>1.26</v>
       </c>
       <c r="E203">
-        <v>1.02</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4586,16 +4535,16 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>-0.03312368972746327</v>
+        <v>0.0002990430622010568</v>
       </c>
       <c r="C204">
-        <v>-0.1073850791258478</v>
+        <v>-0.03353747448235631</v>
       </c>
       <c r="D204">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4603,16 +4552,16 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>-0.03684879288437106</v>
+        <v>0.1141185076810533</v>
       </c>
       <c r="C205">
-        <v>-0.08634772462077007</v>
+        <v>-0.05730258560447245</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="E205">
-        <v>1.04</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4620,16 +4569,16 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>-0.00710179235711867</v>
+        <v>-0.02039748953974891</v>
       </c>
       <c r="C206">
-        <v>-0.07644110275689216</v>
+        <v>0.1244047619047619</v>
       </c>
       <c r="D206">
-        <v>0.99</v>
+        <v>1.34</v>
       </c>
       <c r="E206">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4637,16 +4586,16 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.006231373611487468</v>
+        <v>0.008125362739408016</v>
       </c>
       <c r="C207">
-        <v>-0.09968238455900319</v>
+        <v>-0.05484764542936287</v>
       </c>
       <c r="D207">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
       <c r="E207">
-        <v>1.64</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4654,16 +4603,16 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>0.03198887343532687</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>-0.05186170212765954</v>
       </c>
       <c r="D208">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="E208">
-        <v>1.19</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4671,16 +4620,16 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>-0.006420545746388516</v>
+        <v>0.06567862714508585</v>
       </c>
       <c r="C209">
-        <v>-0.1264044943820225</v>
+        <v>-0.02198308993082241</v>
       </c>
       <c r="D209">
         <v>1.14</v>
       </c>
       <c r="E209">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4688,16 +4637,16 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>-0.0766315789473684</v>
+        <v>0.09255319148936168</v>
       </c>
       <c r="C210">
-        <v>-0.1281957633308984</v>
+        <v>-0.04333484986351219</v>
       </c>
       <c r="D210">
-        <v>0.79</v>
+        <v>0.47</v>
       </c>
       <c r="E210">
-        <v>0.9</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4705,16 +4654,16 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>-0.004404554142774107</v>
+        <v>-0.005627009646302274</v>
       </c>
       <c r="C211">
-        <v>-0.09042232277526403</v>
+        <v>-0.03190990145471608</v>
       </c>
       <c r="D211">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E211">
-        <v>1.3</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4722,16 +4671,16 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.005811965811965812</v>
+        <v>0.01503759398496249</v>
       </c>
       <c r="C212">
-        <v>-0.0562197092084006</v>
+        <v>-0.02227722772277223</v>
       </c>
       <c r="D212">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="E212">
-        <v>1.82</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4739,16 +4688,16 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>-0.007782101167315263</v>
+        <v>0.03504136995184517</v>
       </c>
       <c r="C213">
-        <v>-0.08912655971479497</v>
+        <v>-0.05111080351581417</v>
       </c>
       <c r="D213">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="E213">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4756,16 +4705,16 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>-0.01619121048573646</v>
+        <v>0.03334786399302536</v>
       </c>
       <c r="C214">
-        <v>-0.1160164271047229</v>
+        <v>-0.03563852354688159</v>
       </c>
       <c r="D214">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="E214">
-        <v>0.86</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4773,16 +4722,16 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.008599508599508608</v>
+        <v>0.06812319830071301</v>
       </c>
       <c r="C215">
-        <v>-0.05336426914153137</v>
+        <v>-0.08414376321353062</v>
       </c>
       <c r="D215">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E215">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4790,16 +4739,16 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>-0.01069518716577541</v>
+        <v>0.02966311180168094</v>
       </c>
       <c r="C216">
-        <v>-0.04740406320541765</v>
+        <v>-0.05984167449349252</v>
       </c>
       <c r="D216">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4807,16 +4756,16 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>-0.02808573540280856</v>
+        <v>0.05098085281334443</v>
       </c>
       <c r="C217">
-        <v>-0.1075197889182058</v>
+        <v>-0.08031909080974757</v>
       </c>
       <c r="D217">
-        <v>1.12</v>
+        <v>0.88</v>
       </c>
       <c r="E217">
-        <v>1.21</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4824,16 +4773,16 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.006565656565656543</v>
+        <v>0.01535508637236083</v>
       </c>
       <c r="C218">
-        <v>-0.05544933078393881</v>
+        <v>-0.0128380223982518</v>
       </c>
       <c r="D218">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="E218">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4841,16 +4790,16 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.01626016260162603</v>
+        <v>0.004842105263157829</v>
       </c>
       <c r="C219">
-        <v>-0.1369426751592357</v>
+        <v>0.002130379207498965</v>
       </c>
       <c r="D219">
-        <v>0.97</v>
+        <v>1.44</v>
       </c>
       <c r="E219">
-        <v>0.72</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4858,16 +4807,16 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.01422319474835887</v>
+        <v>0.03698523059201052</v>
       </c>
       <c r="C220">
-        <v>-0.03118161925601759</v>
+        <v>-0.06543775194708626</v>
       </c>
       <c r="D220">
-        <v>0.47</v>
+        <v>1.21</v>
       </c>
       <c r="E220">
-        <v>0.42</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4875,16 +4824,16 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>-0.008726003490401467</v>
+        <v>0.005871633933994719</v>
       </c>
       <c r="C221">
-        <v>-0.09326974032856382</v>
+        <v>-0.02838557066824366</v>
       </c>
       <c r="D221">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E221">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4892,16 +4841,16 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>-0.007730147575544583</v>
+        <v>0.01112264570665869</v>
       </c>
       <c r="C222">
-        <v>-0.1698330454807139</v>
+        <v>-0.04918727915194353</v>
       </c>
       <c r="D222">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
       <c r="E222">
-        <v>0.54</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4909,16 +4858,16 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.001101148340412023</v>
+        <v>0.08778234086242304</v>
       </c>
       <c r="C223">
-        <v>-0.1067304984511406</v>
+        <v>0.01501035196687366</v>
       </c>
       <c r="D223">
-        <v>1.15</v>
+        <v>1.78</v>
       </c>
       <c r="E223">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4926,16 +4875,16 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.03350301882325084</v>
+        <v>0.02465078060805261</v>
       </c>
       <c r="C224">
-        <v>-0.1093881856540084</v>
+        <v>-0.104089219330855</v>
       </c>
       <c r="D224">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="E224">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4943,16 +4892,16 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>-0.03582136657724469</v>
+        <v>-0.03938520653218065</v>
       </c>
       <c r="C225">
-        <v>-0.07095539525982639</v>
+        <v>-0.03658536585365851</v>
       </c>
       <c r="D225">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="E225">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4960,16 +4909,16 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>-0.0006277463904581857</v>
+        <v>0.01270150384074436</v>
       </c>
       <c r="C226">
-        <v>-0.07096774193548386</v>
+        <v>-0.01119260221265404</v>
       </c>
       <c r="D226">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="E226">
-        <v>2.22</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4977,16 +4926,16 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.001420454545454656</v>
+        <v>0.03921076308245973</v>
       </c>
       <c r="C227">
-        <v>-0.09967401934151898</v>
+        <v>-0.06882615274348956</v>
       </c>
       <c r="D227">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="E227">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4994,16 +4943,16 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>-0.01664145234493193</v>
+        <v>0.06714866696791688</v>
       </c>
       <c r="C228">
-        <v>-0.04604316546762578</v>
+        <v>-0.06541655963695524</v>
       </c>
       <c r="D228">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>1.15</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5011,16 +4960,16 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.005940594059405896</v>
+        <v>-0.07111756168359944</v>
       </c>
       <c r="C229">
-        <v>-0.1120191349412</v>
+        <v>0.01323529411764703</v>
       </c>
       <c r="D229">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="E229">
-        <v>1.08</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5028,305 +4977,16 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.02714723926380358</v>
+        <v>0.0323170731707317</v>
       </c>
       <c r="C230">
-        <v>-0.1407339208207286</v>
+        <v>-0.02139843279083784</v>
       </c>
       <c r="D230">
-        <v>0.9399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="E230">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B231">
-        <v>-0.01834286511368391</v>
-      </c>
-      <c r="C231">
-        <v>-0.1167869586859134</v>
-      </c>
-      <c r="D231">
-        <v>1.16</v>
-      </c>
-      <c r="E231">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B232">
-        <v>-0.01099032373671005</v>
-      </c>
-      <c r="C232">
-        <v>-0.1755114141713608</v>
-      </c>
-      <c r="D232">
-        <v>0.99</v>
-      </c>
-      <c r="E232">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B233">
-        <v>0.01303383250138668</v>
-      </c>
-      <c r="C233">
-        <v>-0.05152471083070453</v>
-      </c>
-      <c r="D233">
-        <v>1.4</v>
-      </c>
-      <c r="E233">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B234">
-        <v>0.008044030482641733</v>
-      </c>
-      <c r="C234">
-        <v>-0.02756634437358561</v>
-      </c>
-      <c r="D234">
-        <v>0.91</v>
-      </c>
-      <c r="E234">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B235">
-        <v>0.01798028514616916</v>
-      </c>
-      <c r="C235">
-        <v>-0.1509887664644869</v>
-      </c>
-      <c r="D235">
-        <v>0.97</v>
-      </c>
-      <c r="E235">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B236">
-        <v>-0.02590881703153253</v>
-      </c>
-      <c r="C236">
-        <v>-0.07660687593423021</v>
-      </c>
-      <c r="D236">
-        <v>1.21</v>
-      </c>
-      <c r="E236">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B237">
-        <v>0.006067781559863835</v>
-      </c>
-      <c r="C237">
-        <v>-0.06957123098201938</v>
-      </c>
-      <c r="D237">
-        <v>1.19</v>
-      </c>
-      <c r="E237">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B238">
-        <v>0.02037516170763267</v>
-      </c>
-      <c r="C238">
-        <v>-0.08034647550776587</v>
-      </c>
-      <c r="D238">
-        <v>1.42</v>
-      </c>
-      <c r="E238">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B239">
-        <v>0.0005232862375720336</v>
-      </c>
-      <c r="C239">
-        <v>-0.09117361784675085</v>
-      </c>
-      <c r="D239">
-        <v>1.13</v>
-      </c>
-      <c r="E239">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B240">
-        <v>-0.01800327332242228</v>
-      </c>
-      <c r="C240">
-        <v>-0.1665510062456627</v>
-      </c>
-      <c r="D240">
-        <v>0.95</v>
-      </c>
-      <c r="E240">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B241">
-        <v>0.008763388510223935</v>
-      </c>
-      <c r="C241">
-        <v>-0.09074573225516611</v>
-      </c>
-      <c r="D241">
-        <v>1.08</v>
-      </c>
-      <c r="E241">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B242">
-        <v>-0.002842758560826358</v>
-      </c>
-      <c r="C242">
-        <v>-0.01312583341812553</v>
-      </c>
-      <c r="D242">
-        <v>1.12</v>
-      </c>
-      <c r="E242">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-      <c r="C243">
-        <v>-0.07547169811320743</v>
-      </c>
-      <c r="D243">
-        <v>1.38</v>
-      </c>
-      <c r="E243">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B244">
-        <v>-0.001070057279536634</v>
-      </c>
-      <c r="C244">
-        <v>-0.1100142098571536</v>
-      </c>
-      <c r="D244">
-        <v>1.28</v>
-      </c>
-      <c r="E244">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B245">
-        <v>0.001553220648698067</v>
-      </c>
-      <c r="C245">
-        <v>-0.108413974085616</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-      <c r="E245">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B246">
-        <v>0.03093172387778191</v>
-      </c>
-      <c r="C246">
-        <v>-0.09695290858725771</v>
-      </c>
-      <c r="D246">
-        <v>0.36</v>
-      </c>
-      <c r="E246">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B247">
-        <v>0.005548705302096079</v>
-      </c>
-      <c r="C247">
-        <v>-0.1349825221833827</v>
-      </c>
-      <c r="D247">
-        <v>1.17</v>
-      </c>
-      <c r="E247">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
